--- a/名单.xlsx
+++ b/名单.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HouZhiQi\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -21,7 +25,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">（</t>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -31,7 +35,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2016-2017</t>
+      <t>2016-2017</t>
     </r>
     <r>
       <rPr>
@@ -41,7 +45,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">学年 第二学期</t>
+      <t>学年 第二学期</t>
     </r>
     <r>
       <rPr>
@@ -62,7 +66,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">课程代码：</t>
+      <t>课程代码：</t>
     </r>
     <r>
       <rPr>
@@ -72,7 +76,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">SOFT410711    </t>
+      <t>SOFT410711    </t>
     </r>
     <r>
       <rPr>
@@ -82,7 +86,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">课程名称：数据库系统</t>
+      <t>课程名称：数据库系统</t>
     </r>
     <r>
       <rPr>
@@ -92,7 +96,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">(01)    </t>
+      <t>(01)    </t>
     </r>
     <r>
       <rPr>
@@ -102,7 +106,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">任课老师：侯迪</t>
+      <t>任课老师：侯迪</t>
     </r>
     <r>
       <rPr>
@@ -112,7 +116,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">(40)[</t>
+      <t>(40)[</t>
     </r>
     <r>
       <rPr>
@@ -122,7 +126,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">主讲</t>
+      <t>主讲</t>
     </r>
     <r>
       <rPr>
@@ -162,7 +166,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">星期一</t>
+      <t>星期一</t>
     </r>
     <r>
       <rPr>
@@ -182,7 +186,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">星期三</t>
+      <t>星期三</t>
     </r>
     <r>
       <rPr>
@@ -192,7 +196,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">(1-2)(</t>
+      <t>(1-2)(</t>
     </r>
     <r>
       <rPr>
@@ -202,7 +206,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">东校区 中</t>
+      <t>东校区 中</t>
     </r>
     <r>
       <rPr>
@@ -222,7 +226,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">学时</t>
+      <t>学时</t>
     </r>
     <r>
       <rPr>
@@ -232,7 +236,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -242,7 +246,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">学分：</t>
+      <t>学分：</t>
     </r>
     <r>
       <rPr>
@@ -252,7 +256,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">48.0 / 3.0    </t>
+      <t>48.0 / 3.0    </t>
     </r>
     <r>
       <rPr>
@@ -272,7 +276,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">76</t>
+      <t>76</t>
     </r>
   </si>
   <si>
@@ -295,7 +299,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">软件</t>
+      <t>软件</t>
     </r>
     <r>
       <rPr>
@@ -305,7 +309,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">51</t>
+      <t>51</t>
     </r>
   </si>
   <si>
@@ -403,7 +407,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">软件</t>
+      <t>软件</t>
     </r>
     <r>
       <rPr>
@@ -413,7 +417,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">52</t>
+      <t>52</t>
     </r>
   </si>
   <si>
@@ -475,7 +479,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">软件</t>
+      <t>软件</t>
     </r>
     <r>
       <rPr>
@@ -485,7 +489,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">53</t>
+      <t>53</t>
     </r>
   </si>
   <si>
@@ -547,7 +551,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">软件</t>
+      <t>软件</t>
     </r>
     <r>
       <rPr>
@@ -557,7 +561,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">54</t>
+      <t>54</t>
     </r>
   </si>
   <si>
@@ -606,32 +610,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -660,6 +645,12 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -670,7 +661,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -678,406 +669,655 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O66" activeCellId="0" sqref="O66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.6234817813765"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50607287449393"/>
-    <col collapsed="false" hidden="false" max="24" min="5" style="0" width="3.61943319838057"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="8.50607287449393"/>
+    <col min="1" max="1" width="16.625" style="4"/>
+    <col min="2" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="8.5"/>
+    <col min="5" max="24" width="3.625"/>
+    <col min="25" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="0" t="n">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>6</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>7</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>8</v>
       </c>
-      <c r="M9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="0" t="n">
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>12</v>
+      </c>
+      <c r="Q9">
         <v>13</v>
       </c>
-      <c r="R9" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="T9" s="0" t="n">
+      <c r="R9">
+        <v>14</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+      <c r="T9">
         <v>16</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9">
         <v>17</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9">
         <v>18</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9">
         <v>19</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A10" s="5">
         <v>2130506105</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1086,22 +1326,22 @@
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="8" t="s">
@@ -1111,8 +1351,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+    <row r="11" spans="1:24">
+      <c r="A11" s="9">
         <v>2141601008</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1121,13 +1361,13 @@
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -1136,7 +1376,7 @@
       <c r="I11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="11" t="s">
@@ -1146,8 +1386,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+    <row r="12" spans="1:24">
+      <c r="A12" s="9">
         <v>2141601016</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1156,13 +1396,13 @@
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -1181,8 +1421,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+    <row r="13" spans="1:24">
+      <c r="A13" s="9">
         <v>2151601001</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1191,22 +1431,22 @@
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="0" t="s">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="8" t="s">
@@ -1216,8 +1456,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+    <row r="14" spans="1:24">
+      <c r="A14" s="9">
         <v>2151601002</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1226,22 +1466,22 @@
       <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="0" t="s">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="8" t="s">
@@ -1251,8 +1491,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+    <row r="15" spans="1:24">
+      <c r="A15" s="9">
         <v>2151601003</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1261,23 +1501,23 @@
       <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="8" t="s">
@@ -1287,8 +1527,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+    <row r="16" spans="1:24">
+      <c r="A16" s="9">
         <v>2151601004</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1297,22 +1537,22 @@
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="0" t="s">
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="8" t="s">
@@ -1322,8 +1562,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+    <row r="17" spans="1:13">
+      <c r="A17" s="9">
         <v>2151601005</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -1332,22 +1572,22 @@
       <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="0" t="s">
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
         <v>9</v>
       </c>
       <c r="L17" s="8" t="s">
@@ -1357,8 +1597,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+    <row r="18" spans="1:13">
+      <c r="A18" s="9">
         <v>2151601007</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1367,22 +1607,22 @@
       <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="0" t="s">
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="8" t="s">
@@ -1392,8 +1632,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+    <row r="19" spans="1:13">
+      <c r="A19" s="9">
         <v>2151601008</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -1402,22 +1642,22 @@
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="0" t="s">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="11" t="s">
@@ -1427,8 +1667,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+    <row r="20" spans="1:13">
+      <c r="A20" s="9">
         <v>2151601009</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1437,22 +1677,22 @@
       <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="0" t="s">
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" t="s">
         <v>9</v>
       </c>
       <c r="L20" s="8" t="s">
@@ -1462,8 +1702,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+    <row r="21" spans="1:13">
+      <c r="A21" s="9">
         <v>2151601010</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -1472,22 +1712,22 @@
       <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="0" t="s">
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="8" t="s">
@@ -1497,8 +1737,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+    <row r="22" spans="1:13">
+      <c r="A22" s="9">
         <v>2151601011</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1507,22 +1747,22 @@
       <c r="C22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="0" t="s">
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="8" t="s">
@@ -1532,8 +1772,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+    <row r="23" spans="1:13">
+      <c r="A23" s="9">
         <v>2151601012</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -1542,22 +1782,22 @@
       <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="0" t="s">
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="8" t="s">
@@ -1567,8 +1807,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+    <row r="24" spans="1:13">
+      <c r="A24" s="9">
         <v>2151601013</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1577,22 +1817,22 @@
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="0" t="s">
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" t="s">
         <v>15</v>
       </c>
       <c r="L24" s="8" t="s">
@@ -1602,8 +1842,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+    <row r="25" spans="1:13">
+      <c r="A25" s="9">
         <v>2151601014</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -1612,22 +1852,22 @@
       <c r="C25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="0" t="s">
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="8" t="s">
@@ -1637,8 +1877,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+    <row r="26" spans="1:13">
+      <c r="A26" s="9">
         <v>2151601015</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1647,22 +1887,22 @@
       <c r="C26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="0" t="s">
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="8" t="s">
@@ -1672,8 +1912,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+    <row r="27" spans="1:13">
+      <c r="A27" s="9">
         <v>2151601016</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -1682,22 +1922,22 @@
       <c r="C27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="0" t="s">
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="0" t="s">
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
         <v>15</v>
       </c>
       <c r="L27" s="8" t="s">
@@ -1707,8 +1947,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+    <row r="28" spans="1:13">
+      <c r="A28" s="9">
         <v>2151601017</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -1717,22 +1957,22 @@
       <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="0" t="s">
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="8" t="s">
@@ -1742,8 +1982,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+    <row r="29" spans="1:13">
+      <c r="A29" s="9">
         <v>2151601018</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -1752,13 +1992,13 @@
       <c r="C29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="0" t="s">
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -1767,7 +2007,7 @@
       <c r="I29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="8" t="s">
@@ -1777,8 +2017,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+    <row r="30" spans="1:13">
+      <c r="A30" s="9">
         <v>2151601019</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -1787,22 +2027,22 @@
       <c r="C30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="0" t="s">
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="8" t="s">
@@ -1812,8 +2052,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+    <row r="31" spans="1:13">
+      <c r="A31" s="9">
         <v>2151800096</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -1847,8 +2087,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+    <row r="32" spans="1:13">
+      <c r="A32" s="9">
         <v>2151800107</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1857,22 +2097,22 @@
       <c r="C32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="0" t="s">
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="8" t="s">
@@ -1882,8 +2122,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
+    <row r="33" spans="1:13">
+      <c r="A33" s="9">
         <v>2130506090</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -1892,10 +2132,10 @@
       <c r="C33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="0" t="s">
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="13" t="s">
@@ -1917,8 +2157,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
+    <row r="34" spans="1:13">
+      <c r="A34" s="9">
         <v>2142010012</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -1927,33 +2167,33 @@
       <c r="C34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="0" t="s">
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="0" t="s">
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
+      <c r="L34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="9">
         <v>2150500035</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -1962,33 +2202,33 @@
       <c r="C35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="0" t="s">
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" t="s">
         <v>9</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
+      <c r="L35" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="9">
         <v>2150508244</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -2022,8 +2262,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+    <row r="37" spans="1:13">
+      <c r="A37" s="9">
         <v>2150703012</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -2032,16 +2272,16 @@
       <c r="C37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="0" t="s">
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" t="s">
         <v>16</v>
       </c>
       <c r="I37" s="7" t="s">
@@ -2050,15 +2290,15 @@
       <c r="K37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
+      <c r="L37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="9">
         <v>2151601020</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -2067,33 +2307,33 @@
       <c r="C38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="0" t="s">
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="0" t="s">
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
         <v>11</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M38" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
+      <c r="L38" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="9">
         <v>2151601021</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -2102,33 +2342,33 @@
       <c r="C39" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="0" t="s">
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="0" t="s">
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
         <v>12</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
+      <c r="L39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="9">
         <v>2151601022</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -2137,16 +2377,16 @@
       <c r="C40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="0" t="s">
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" t="s">
         <v>12</v>
       </c>
       <c r="I40" s="7" t="s">
@@ -2155,15 +2395,15 @@
       <c r="K40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
+      <c r="L40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="9">
         <v>2151601024</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -2172,33 +2412,33 @@
       <c r="C41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="0" t="s">
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="0" t="s">
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
         <v>12</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
+      <c r="L41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="9">
         <v>2151601027</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -2207,10 +2447,10 @@
       <c r="C42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="0" t="s">
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="13" t="s">
@@ -2232,8 +2472,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
+    <row r="43" spans="1:13">
+      <c r="A43" s="9">
         <v>2151601028</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -2242,33 +2482,33 @@
       <c r="C43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="0" t="s">
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
         <v>9</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="0" t="s">
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
         <v>14</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M43" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
+      <c r="L43" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="9">
         <v>2151601029</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -2277,16 +2517,16 @@
       <c r="C44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="0" t="s">
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" t="s">
         <v>15</v>
       </c>
       <c r="I44" s="7" t="s">
@@ -2295,15 +2535,15 @@
       <c r="K44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M44" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
+      <c r="L44" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="9">
         <v>2151601030</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -2312,16 +2552,16 @@
       <c r="C45" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="0" t="s">
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" t="s">
         <v>11</v>
       </c>
       <c r="I45" s="7" t="s">
@@ -2337,8 +2577,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
+    <row r="46" spans="1:13">
+      <c r="A46" s="9">
         <v>2151601031</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -2347,16 +2587,16 @@
       <c r="C46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="0" t="s">
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" t="s">
         <v>11</v>
       </c>
       <c r="I46" s="7" t="s">
@@ -2365,15 +2605,15 @@
       <c r="K46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
+      <c r="L46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="9">
         <v>2151601032</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -2382,33 +2622,33 @@
       <c r="C47" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="0" t="s">
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="0" t="s">
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
         <v>12</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M47" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
+      <c r="L47" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="9">
         <v>2151601033</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -2417,16 +2657,16 @@
       <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="0" t="s">
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" t="s">
         <v>11</v>
       </c>
       <c r="I48" s="7" t="s">
@@ -2435,15 +2675,15 @@
       <c r="K48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M48" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
+      <c r="L48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="9">
         <v>2151601034</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -2452,16 +2692,16 @@
       <c r="C49" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="0" t="s">
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" t="s">
         <v>9</v>
       </c>
       <c r="I49" s="7" t="s">
@@ -2470,15 +2710,15 @@
       <c r="K49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M49" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
+      <c r="L49" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="9">
         <v>2151601037</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -2496,24 +2736,24 @@
       <c r="G50" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="0" t="s">
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
         <v>11</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
+      <c r="L50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="9">
         <v>2151800040</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -2522,33 +2762,33 @@
       <c r="C51" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="0" t="s">
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="0" t="s">
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
         <v>11</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
+      <c r="L51" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="9">
         <v>2140501050</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -2582,8 +2822,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
+    <row r="53" spans="1:13">
+      <c r="A53" s="9">
         <v>2151200015</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -2592,16 +2832,16 @@
       <c r="C53" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="0" t="s">
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
         <v>16</v>
       </c>
       <c r="I53" s="7" t="s">
@@ -2617,8 +2857,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="n">
+    <row r="54" spans="1:13">
+      <c r="A54" s="9">
         <v>2151601038</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -2627,22 +2867,22 @@
       <c r="C54" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="0" t="s">
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="8" t="s">
@@ -2652,8 +2892,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="n">
+    <row r="55" spans="1:13">
+      <c r="A55" s="9">
         <v>2151601039</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -2662,22 +2902,22 @@
       <c r="C55" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="0" t="s">
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" t="s">
         <v>12</v>
       </c>
       <c r="L55" s="8" t="s">
@@ -2687,8 +2927,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="n">
+    <row r="56" spans="1:13">
+      <c r="A56" s="9">
         <v>2151601042</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -2697,22 +2937,22 @@
       <c r="C56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K56" s="0" t="s">
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="8" t="s">
@@ -2722,8 +2962,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="n">
+    <row r="57" spans="1:13">
+      <c r="A57" s="9">
         <v>2151601043</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -2732,22 +2972,22 @@
       <c r="C57" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="0" t="s">
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
         <v>9</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K57" s="0" t="s">
+      <c r="K57" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="8" t="s">
@@ -2757,8 +2997,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="n">
+    <row r="58" spans="1:13">
+      <c r="A58" s="9">
         <v>2151601044</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -2767,22 +3007,22 @@
       <c r="C58" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="0" t="s">
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="8" t="s">
@@ -2792,8 +3032,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="n">
+    <row r="59" spans="1:13">
+      <c r="A59" s="9">
         <v>2151601045</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -2802,22 +3042,22 @@
       <c r="C59" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="0" t="s">
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
         <v>11</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="0" t="s">
+      <c r="K59" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="8" t="s">
@@ -2827,8 +3067,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="n">
+    <row r="60" spans="1:13">
+      <c r="A60" s="9">
         <v>2151601046</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -2837,22 +3077,22 @@
       <c r="C60" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="0" t="s">
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="8" t="s">
@@ -2862,8 +3102,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="n">
+    <row r="61" spans="1:13">
+      <c r="A61" s="9">
         <v>2151601047</v>
       </c>
       <c r="B61" s="10" t="s">
@@ -2872,22 +3112,22 @@
       <c r="C61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="0" t="s">
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" t="s">
         <v>11</v>
       </c>
       <c r="L61" s="8" t="s">
@@ -2897,8 +3137,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="n">
+    <row r="62" spans="1:13">
+      <c r="A62" s="9">
         <v>2151601048</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -2907,22 +3147,22 @@
       <c r="C62" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="0" t="s">
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
         <v>11</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="0" t="s">
+      <c r="K62" t="s">
         <v>11</v>
       </c>
       <c r="L62" s="8" t="s">
@@ -2932,8 +3172,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="n">
+    <row r="63" spans="1:13">
+      <c r="A63" s="9">
         <v>2151601049</v>
       </c>
       <c r="B63" s="10" t="s">
@@ -2942,22 +3182,22 @@
       <c r="C63" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="0" t="s">
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" t="s">
         <v>11</v>
       </c>
       <c r="L63" s="8" t="s">
@@ -2967,8 +3207,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="n">
+    <row r="64" spans="1:13">
+      <c r="A64" s="9">
         <v>2151601050</v>
       </c>
       <c r="B64" s="10" t="s">
@@ -2977,22 +3217,22 @@
       <c r="C64" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="0" t="s">
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
         <v>9</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K64" s="0" t="s">
+      <c r="K64" t="s">
         <v>12</v>
       </c>
       <c r="L64" s="8" t="s">
@@ -3002,8 +3242,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="n">
+    <row r="65" spans="1:13">
+      <c r="A65" s="9">
         <v>2151601051</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -3012,22 +3252,22 @@
       <c r="C65" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="0" t="s">
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
         <v>9</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K65" s="0" t="s">
+      <c r="K65" t="s">
         <v>12</v>
       </c>
       <c r="L65" s="7" t="s">
@@ -3037,8 +3277,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="n">
+    <row r="66" spans="1:13">
+      <c r="A66" s="9">
         <v>2151601052</v>
       </c>
       <c r="B66" s="10" t="s">
@@ -3047,22 +3287,22 @@
       <c r="C66" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="0" t="s">
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
         <v>11</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K66" s="0" t="s">
+      <c r="K66" t="s">
         <v>12</v>
       </c>
       <c r="L66" s="7" t="s">
@@ -3072,8 +3312,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="n">
+    <row r="67" spans="1:13">
+      <c r="A67" s="9">
         <v>2151601053</v>
       </c>
       <c r="B67" s="10" t="s">
@@ -3082,19 +3322,19 @@
       <c r="C67" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" s="0" t="s">
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
         <v>11</v>
       </c>
       <c r="K67" s="7" t="s">
@@ -3107,8 +3347,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="n">
+    <row r="68" spans="1:13">
+      <c r="A68" s="9">
         <v>2151601054</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -3117,22 +3357,22 @@
       <c r="C68" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="0" t="s">
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" t="s">
         <v>12</v>
       </c>
       <c r="L68" s="8" t="s">
@@ -3142,8 +3382,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="n">
+    <row r="69" spans="1:13">
+      <c r="A69" s="9">
         <v>2151601055</v>
       </c>
       <c r="B69" s="10" t="s">
@@ -3152,22 +3392,22 @@
       <c r="C69" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69" s="0" t="s">
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
         <v>9</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K69" s="0" t="s">
+      <c r="K69" t="s">
         <v>15</v>
       </c>
       <c r="L69" s="8" t="s">
@@ -3177,8 +3417,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="n">
+    <row r="70" spans="1:13">
+      <c r="A70" s="9">
         <v>2152004006</v>
       </c>
       <c r="B70" s="10" t="s">
@@ -3187,22 +3427,22 @@
       <c r="C70" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="0" t="s">
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" t="s">
         <v>12</v>
       </c>
       <c r="L70" s="8" t="s">
@@ -3212,8 +3452,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="n">
+    <row r="71" spans="1:13">
+      <c r="A71" s="9">
         <v>2131601060</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -3247,8 +3487,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="n">
+    <row r="72" spans="1:13">
+      <c r="A72" s="9">
         <v>2150900084</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -3257,16 +3497,16 @@
       <c r="C72" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="0" t="s">
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
         <v>14</v>
       </c>
       <c r="I72" s="7" t="s">
@@ -3282,8 +3522,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="n">
+    <row r="73" spans="1:13">
+      <c r="A73" s="9">
         <v>2151601056</v>
       </c>
       <c r="B73" s="10" t="s">
@@ -3292,19 +3532,19 @@
       <c r="C73" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" s="0" t="s">
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
         <v>11</v>
       </c>
       <c r="K73" s="8" t="s">
@@ -3317,8 +3557,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="n">
+    <row r="74" spans="1:13">
+      <c r="A74" s="9">
         <v>2151601057</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -3327,19 +3567,19 @@
       <c r="C74" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="0" t="s">
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
         <v>16</v>
       </c>
-      <c r="I74" s="0" t="s">
+      <c r="I74" t="s">
         <v>16</v>
       </c>
       <c r="K74" s="8" t="s">
@@ -3352,8 +3592,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="n">
+    <row r="75" spans="1:13">
+      <c r="A75" s="9">
         <v>2151601058</v>
       </c>
       <c r="B75" s="10" t="s">
@@ -3362,19 +3602,19 @@
       <c r="C75" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" s="0" t="s">
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
         <v>15</v>
       </c>
       <c r="K75" s="8" t="s">
@@ -3387,8 +3627,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="n">
+    <row r="76" spans="1:13">
+      <c r="A76" s="9">
         <v>2151601059</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -3397,19 +3637,19 @@
       <c r="C76" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" s="0" t="s">
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
         <v>11</v>
       </c>
       <c r="K76" s="8" t="s">
@@ -3422,8 +3662,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="n">
+    <row r="77" spans="1:13">
+      <c r="A77" s="9">
         <v>2151601061</v>
       </c>
       <c r="B77" s="10" t="s">
@@ -3432,19 +3672,19 @@
       <c r="C77" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" s="0" t="s">
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" t="s">
         <v>12</v>
       </c>
       <c r="K77" s="8" t="s">
@@ -3457,8 +3697,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="n">
+    <row r="78" spans="1:13">
+      <c r="A78" s="9">
         <v>2151601062</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -3467,19 +3707,19 @@
       <c r="C78" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E78" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="0" t="s">
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H78" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="0" t="s">
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
         <v>11</v>
       </c>
       <c r="K78" s="8" t="s">
@@ -3492,8 +3732,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9" t="n">
+    <row r="79" spans="1:13">
+      <c r="A79" s="9">
         <v>2151601063</v>
       </c>
       <c r="B79" s="10" t="s">
@@ -3502,16 +3742,16 @@
       <c r="C79" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="0" t="s">
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="H79" t="s">
         <v>11</v>
       </c>
       <c r="I79" s="7" t="s">
@@ -3527,8 +3767,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="n">
+    <row r="80" spans="1:13">
+      <c r="A80" s="9">
         <v>2151601064</v>
       </c>
       <c r="B80" s="10" t="s">
@@ -3537,16 +3777,16 @@
       <c r="C80" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="0" t="s">
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
         <v>14</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H80" s="0" t="s">
+      <c r="H80" t="s">
         <v>16</v>
       </c>
       <c r="I80" s="7" t="s">
@@ -3562,8 +3802,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9" t="n">
+    <row r="81" spans="1:13">
+      <c r="A81" s="9">
         <v>2151601065</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -3572,7 +3812,7 @@
       <c r="C81" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="12" t="s">
@@ -3581,7 +3821,7 @@
       <c r="G81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H81" s="0" t="s">
+      <c r="H81" t="s">
         <v>16</v>
       </c>
       <c r="I81" s="7" t="s">
@@ -3597,8 +3837,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="n">
+    <row r="82" spans="1:13">
+      <c r="A82" s="9">
         <v>2151601066</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -3607,16 +3847,16 @@
       <c r="C82" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="0" t="s">
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" t="s">
         <v>11</v>
       </c>
       <c r="I82" s="7" t="s">
@@ -3632,8 +3872,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9" t="n">
+    <row r="83" spans="1:13">
+      <c r="A83" s="9">
         <v>2151601067</v>
       </c>
       <c r="B83" s="10" t="s">
@@ -3642,19 +3882,19 @@
       <c r="C83" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" s="0" t="s">
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
         <v>11</v>
       </c>
       <c r="K83" s="8" t="s">
@@ -3667,8 +3907,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="n">
+    <row r="84" spans="1:13">
+      <c r="A84" s="9">
         <v>2151601070</v>
       </c>
       <c r="B84" s="10" t="s">
@@ -3677,19 +3917,19 @@
       <c r="C84" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="0" t="s">
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
         <v>11</v>
       </c>
       <c r="K84" s="8" t="s">
@@ -3702,8 +3942,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="n">
+    <row r="85" spans="1:13">
+      <c r="A85" s="9">
         <v>2151601071</v>
       </c>
       <c r="B85" s="10" t="s">
@@ -3712,19 +3952,19 @@
       <c r="C85" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I85" s="0" t="s">
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" t="s">
         <v>11</v>
       </c>
       <c r="K85" s="8" t="s">
@@ -3747,12 +3987,8 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:T8"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/名单.xlsx
+++ b/名单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="98">
   <si>
     <t>西安交通大学学生考勤、考核表</t>
   </si>
@@ -606,6 +606,18 @@
   <si>
     <t>尤丹雷</t>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -674,15 +686,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -703,6 +706,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1019,242 +1031,242 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="4"/>
-    <col min="2" max="3" width="9" style="4"/>
+    <col min="1" max="1" width="16.625" style="1"/>
+    <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="8.5"/>
     <col min="5" max="24" width="3.625"/>
     <col min="25" max="1025" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
       <c r="E9">
         <v>1</v>
       </c>
@@ -1317,13 +1329,13 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>2130506105</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
@@ -1332,33 +1344,33 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="L10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>2141601008</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
@@ -1370,30 +1382,30 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>2141601016</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
@@ -1405,30 +1417,30 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="11" t="s">
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>2151601001</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
@@ -1449,21 +1461,21 @@
       <c r="K13" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="L13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>2151601002</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
@@ -1478,30 +1490,30 @@
       <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="L14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>2151601003</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="1"/>
       <c r="E15" t="s">
         <v>14</v>
       </c>
@@ -1511,7 +1523,7 @@
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I15" t="s">
@@ -1520,21 +1532,21 @@
       <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="11" t="s">
+      <c r="L15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>2151601004</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
@@ -1549,27 +1561,27 @@
       <c r="H16" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="8" t="s">
+      <c r="L16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>2151601005</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
@@ -1590,21 +1602,21 @@
       <c r="K17" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="8" t="s">
+      <c r="L17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>2151601007</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
@@ -1625,21 +1637,21 @@
       <c r="K18" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="8" t="s">
+      <c r="L18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>2151601008</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
@@ -1660,21 +1672,21 @@
       <c r="K19" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="11" t="s">
+      <c r="L19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>2151601009</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
@@ -1695,21 +1707,21 @@
       <c r="K20" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="L20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>2151601010</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
@@ -1730,21 +1742,21 @@
       <c r="K21" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="L21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>2151601011</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
@@ -1765,21 +1777,21 @@
       <c r="K22" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="8" t="s">
+      <c r="L22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>2151601012</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
@@ -1800,21 +1812,21 @@
       <c r="K23" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="L23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>2151601013</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
@@ -1835,21 +1847,21 @@
       <c r="K24" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="L24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>2151601014</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
@@ -1870,21 +1882,21 @@
       <c r="K25" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="L25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>2151601015</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
@@ -1905,21 +1917,21 @@
       <c r="K26" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="8" t="s">
+      <c r="L26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>2151601016</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
@@ -1940,21 +1952,21 @@
       <c r="K27" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="8" t="s">
+      <c r="L27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>2151601017</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
@@ -1975,21 +1987,21 @@
       <c r="K28" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="8" t="s">
+      <c r="L28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>2151601018</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
@@ -2001,30 +2013,30 @@
       <c r="G29" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="H29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K29" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="11" t="s">
+      <c r="L29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="9">
+      <c r="A30" s="6">
         <v>2151601019</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
@@ -2045,56 +2057,56 @@
       <c r="K30" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="8" t="s">
+      <c r="L30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>2151800096</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="7" t="s">
+      <c r="E31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="9">
+      <c r="A32" s="6">
         <v>2151800107</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
@@ -2115,21 +2127,21 @@
       <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="8" t="s">
+      <c r="L32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="9">
+      <c r="A33" s="6">
         <v>2130506090</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E33" t="s">
@@ -2138,33 +2150,33 @@
       <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="11" t="s">
+      <c r="G33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="9">
+      <c r="A34" s="6">
         <v>2142010012</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E34" t="s">
@@ -2173,7 +2185,7 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H34" t="s">
@@ -2182,7 +2194,7 @@
       <c r="I34" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L34" t="s">
@@ -2193,83 +2205,83 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="9">
+      <c r="A35" s="6">
         <v>2150500035</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" t="s">
-        <v>9</v>
-      </c>
-      <c r="M35" t="s">
-        <v>9</v>
+      <c r="F35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="9">
+      <c r="A36" s="6">
         <v>2150508244</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" s="11" t="s">
+      <c r="E36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="9">
+      <c r="A37" s="6">
         <v>2150703012</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E37" t="s">
@@ -2278,16 +2290,16 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="8" t="s">
+      <c r="I37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L37" t="s">
@@ -2298,13 +2310,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="9">
+      <c r="A38" s="6">
         <v>2151601020</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E38" t="s">
@@ -2313,7 +2325,7 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H38" t="s">
@@ -2322,7 +2334,7 @@
       <c r="I38" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L38" t="s">
@@ -2333,13 +2345,13 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="9">
+      <c r="A39" s="6">
         <v>2151601021</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
@@ -2348,7 +2360,7 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="s">
@@ -2357,7 +2369,7 @@
       <c r="I39" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L39" t="s">
@@ -2368,13 +2380,13 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="9">
+      <c r="A40" s="6">
         <v>2151601022</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E40" t="s">
@@ -2383,16 +2395,16 @@
       <c r="F40" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="8" t="s">
+      <c r="I40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L40" t="s">
@@ -2403,13 +2415,13 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="9">
+      <c r="A41" s="6">
         <v>2151601024</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E41" t="s">
@@ -2418,7 +2430,7 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H41" t="s">
@@ -2427,7 +2439,7 @@
       <c r="I41" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L41" t="s">
@@ -2438,13 +2450,13 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="9">
+      <c r="A42" s="6">
         <v>2151601027</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E42" t="s">
@@ -2453,33 +2465,33 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M42" s="11" t="s">
+      <c r="G42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="9">
+      <c r="A43" s="6">
         <v>2151601028</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E43" t="s">
@@ -2488,7 +2500,7 @@
       <c r="F43" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H43" t="s">
@@ -2497,7 +2509,7 @@
       <c r="I43" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L43" t="s">
@@ -2508,13 +2520,13 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="9">
+      <c r="A44" s="6">
         <v>2151601029</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E44" t="s">
@@ -2523,16 +2535,16 @@
       <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H44" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="8" t="s">
+      <c r="I44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L44" t="s">
@@ -2543,13 +2555,13 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="9">
+      <c r="A45" s="6">
         <v>2151601030</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E45" t="s">
@@ -2558,33 +2570,33 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="11" t="s">
+      <c r="I45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="9">
+      <c r="A46" s="6">
         <v>2151601031</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E46" t="s">
@@ -2593,16 +2605,16 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="8" t="s">
+      <c r="I46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L46" t="s">
@@ -2613,13 +2625,13 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="9">
+      <c r="A47" s="6">
         <v>2151601032</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E47" t="s">
@@ -2628,7 +2640,7 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
@@ -2637,7 +2649,7 @@
       <c r="I47" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L47" t="s">
@@ -2648,13 +2660,13 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="9">
+      <c r="A48" s="6">
         <v>2151601033</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E48" t="s">
@@ -2663,16 +2675,16 @@
       <c r="F48" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="8" t="s">
+      <c r="I48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L48" t="s">
@@ -2683,13 +2695,13 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="9">
+      <c r="A49" s="6">
         <v>2151601034</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E49" t="s">
@@ -2698,16 +2710,16 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="8" t="s">
+      <c r="I49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L49" t="s">
@@ -2718,22 +2730,22 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="9">
+      <c r="A50" s="6">
         <v>2151601037</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="13" t="s">
+      <c r="E50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
@@ -2742,7 +2754,7 @@
       <c r="I50" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L50" t="s">
@@ -2753,13 +2765,13 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="9">
+      <c r="A51" s="6">
         <v>2151800040</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E51" t="s">
@@ -2768,7 +2780,7 @@
       <c r="F51" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H51" t="s">
@@ -2777,7 +2789,7 @@
       <c r="I51" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L51" t="s">
@@ -2788,48 +2800,48 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="9">
+      <c r="A52" s="6">
         <v>2140501050</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" s="7" t="s">
+      <c r="E52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="9">
+      <c r="A53" s="6">
         <v>2151200015</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E53" t="s">
@@ -2844,27 +2856,27 @@
       <c r="H53" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M53" s="7" t="s">
+      <c r="I53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="9">
+      <c r="A54" s="6">
         <v>2151601038</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E54" t="s">
@@ -2885,21 +2897,21 @@
       <c r="K54" t="s">
         <v>12</v>
       </c>
-      <c r="L54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="8" t="s">
+      <c r="L54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="9">
+      <c r="A55" s="6">
         <v>2151601039</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
@@ -2920,21 +2932,21 @@
       <c r="K55" t="s">
         <v>12</v>
       </c>
-      <c r="L55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="8" t="s">
+      <c r="L55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="9">
+      <c r="A56" s="6">
         <v>2151601042</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E56" t="s">
@@ -2955,21 +2967,21 @@
       <c r="K56" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M56" s="8" t="s">
+      <c r="L56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="9">
+      <c r="A57" s="6">
         <v>2151601043</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E57" t="s">
@@ -2984,27 +2996,27 @@
       <c r="H57" t="s">
         <v>9</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K57" t="s">
         <v>11</v>
       </c>
-      <c r="L57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M57" s="8" t="s">
+      <c r="L57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="9">
+      <c r="A58" s="6">
         <v>2151601044</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E58" t="s">
@@ -3025,21 +3037,21 @@
       <c r="K58" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="8" t="s">
+      <c r="L58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="9">
+      <c r="A59" s="6">
         <v>2151601045</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E59" t="s">
@@ -3054,27 +3066,27 @@
       <c r="H59" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K59" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="8" t="s">
+      <c r="L59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="9">
+      <c r="A60" s="6">
         <v>2151601046</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E60" t="s">
@@ -3095,21 +3107,21 @@
       <c r="K60" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M60" s="8" t="s">
+      <c r="L60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="9">
+      <c r="A61" s="6">
         <v>2151601047</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E61" t="s">
@@ -3130,21 +3142,21 @@
       <c r="K61" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="8" t="s">
+      <c r="L61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="9">
+      <c r="A62" s="6">
         <v>2151601048</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E62" t="s">
@@ -3159,27 +3171,27 @@
       <c r="H62" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K62" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" s="8" t="s">
+      <c r="L62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="9">
+      <c r="A63" s="6">
         <v>2151601049</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E63" t="s">
@@ -3200,21 +3212,21 @@
       <c r="K63" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M63" s="8" t="s">
+      <c r="L63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="9">
+      <c r="A64" s="6">
         <v>2151601050</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E64" t="s">
@@ -3229,27 +3241,27 @@
       <c r="H64" t="s">
         <v>9</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K64" t="s">
         <v>12</v>
       </c>
-      <c r="L64" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M64" s="8" t="s">
+      <c r="L64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="9">
+      <c r="A65" s="6">
         <v>2151601051</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E65" t="s">
@@ -3264,27 +3276,27 @@
       <c r="H65" t="s">
         <v>9</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K65" t="s">
         <v>12</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M65" s="7" t="s">
+      <c r="L65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="9">
+      <c r="A66" s="6">
         <v>2151601052</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E66" t="s">
@@ -3299,27 +3311,27 @@
       <c r="H66" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K66" t="s">
         <v>12</v>
       </c>
-      <c r="L66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="7" t="s">
+      <c r="L66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="9">
+      <c r="A67" s="6">
         <v>2151601053</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E67" t="s">
@@ -3337,24 +3349,24 @@
       <c r="I67" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M67" s="7" t="s">
+      <c r="K67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="9">
+      <c r="A68" s="6">
         <v>2151601054</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E68" t="s">
@@ -3375,21 +3387,21 @@
       <c r="K68" t="s">
         <v>12</v>
       </c>
-      <c r="L68" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M68" s="8" t="s">
+      <c r="L68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="9">
+      <c r="A69" s="6">
         <v>2151601055</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E69" t="s">
@@ -3404,27 +3416,27 @@
       <c r="H69" t="s">
         <v>9</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K69" t="s">
         <v>15</v>
       </c>
-      <c r="L69" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M69" s="8" t="s">
+      <c r="L69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="9">
+      <c r="A70" s="6">
         <v>2152004006</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E70" t="s">
@@ -3445,56 +3457,56 @@
       <c r="K70" t="s">
         <v>12</v>
       </c>
-      <c r="L70" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M70" s="8" t="s">
+      <c r="L70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="9">
+      <c r="A71" s="6">
         <v>2131601060</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M71" s="7" t="s">
+      <c r="E71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="9">
+      <c r="A72" s="6">
         <v>2150900084</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E72" t="s">
@@ -3509,27 +3521,27 @@
       <c r="H72" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M72" s="8" t="s">
+      <c r="I72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="9">
+      <c r="A73" s="6">
         <v>2151601056</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E73" t="s">
@@ -3547,24 +3559,24 @@
       <c r="I73" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L73" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M73" s="8" t="s">
+      <c r="K73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="9">
+      <c r="A74" s="6">
         <v>2151601057</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E74" t="s">
@@ -3582,24 +3594,24 @@
       <c r="I74" t="s">
         <v>16</v>
       </c>
-      <c r="K74" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M74" s="8" t="s">
+      <c r="K74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="9">
+      <c r="A75" s="6">
         <v>2151601058</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E75" t="s">
@@ -3617,24 +3629,24 @@
       <c r="I75" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="8" t="s">
+      <c r="K75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="9">
+      <c r="A76" s="6">
         <v>2151601059</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E76" t="s">
@@ -3652,24 +3664,24 @@
       <c r="I76" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="8" t="s">
+      <c r="K76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="9">
+      <c r="A77" s="6">
         <v>2151601061</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E77" t="s">
@@ -3687,24 +3699,24 @@
       <c r="I77" t="s">
         <v>12</v>
       </c>
-      <c r="K77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M77" s="8" t="s">
+      <c r="K77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="9">
+      <c r="A78" s="6">
         <v>2151601062</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E78" t="s">
@@ -3713,7 +3725,7 @@
       <c r="F78" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H78" t="s">
@@ -3722,24 +3734,24 @@
       <c r="I78" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M78" s="8" t="s">
+      <c r="K78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="9">
+      <c r="A79" s="6">
         <v>2151601063</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E79" t="s">
@@ -3748,33 +3760,33 @@
       <c r="F79" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H79" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M79" s="7" t="s">
+      <c r="I79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="9">
+      <c r="A80" s="6">
         <v>2151601064</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E80" t="s">
@@ -3783,68 +3795,68 @@
       <c r="F80" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H80" t="s">
         <v>16</v>
       </c>
-      <c r="I80" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M80" s="7" t="s">
+      <c r="I80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="9">
+      <c r="A81" s="6">
         <v>2151601065</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="7" t="s">
+      <c r="F81" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H81" t="s">
         <v>16</v>
       </c>
-      <c r="I81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K81" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M81" s="7" t="s">
+      <c r="I81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="9">
+      <c r="A82" s="6">
         <v>2151601066</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E82" t="s">
@@ -3859,27 +3871,27 @@
       <c r="H82" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M82" s="8" t="s">
+      <c r="I82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="9">
+      <c r="A83" s="6">
         <v>2151601067</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E83" t="s">
@@ -3897,24 +3909,24 @@
       <c r="I83" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L83" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M83" s="8" t="s">
+      <c r="K83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="9">
+      <c r="A84" s="6">
         <v>2151601070</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E84" t="s">
@@ -3932,24 +3944,24 @@
       <c r="I84" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M84" s="8" t="s">
+      <c r="K84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="9">
+      <c r="A85" s="6">
         <v>2151601071</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E85" t="s">
@@ -3967,13 +3979,13 @@
       <c r="I85" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M85" s="8" t="s">
+      <c r="K85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="5" t="s">
         <v>12</v>
       </c>
     </row>

--- a/名单.xlsx
+++ b/名单.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HouZhiQi\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>西安交通大学学生考勤、考核表</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>（</t>
     </r>
     <r>
@@ -32,7 +33,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2016-2017</t>
@@ -42,7 +42,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>学年 第二学期</t>
@@ -52,7 +51,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
@@ -63,7 +61,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>课程代码：</t>
@@ -73,7 +70,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>SOFT410711    </t>
@@ -83,7 +79,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>课程名称：数据库系统</t>
@@ -93,7 +88,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(01)    </t>
@@ -103,7 +97,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>任课老师：侯迪</t>
@@ -113,7 +106,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(40)[</t>
@@ -123,7 +115,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主讲</t>
@@ -133,7 +124,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">] </t>
@@ -143,7 +133,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时间地点： </t>
@@ -153,7 +142,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1-10 </t>
@@ -163,7 +151,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>星期一</t>
@@ -173,7 +160,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">(3-4),1-10 </t>
@@ -183,7 +169,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>星期三</t>
@@ -193,7 +178,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(1-2)(</t>
@@ -203,7 +187,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>东校区 中</t>
@@ -213,7 +196,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3 3303) </t>
@@ -223,7 +205,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>学时</t>
@@ -233,7 +214,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/</t>
@@ -243,7 +223,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>学分：</t>
@@ -253,7 +232,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>48.0 / 3.0    </t>
@@ -263,7 +241,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">总人数： </t>
@@ -273,7 +250,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>76</t>
@@ -299,6 +275,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>软件</t>
     </r>
     <r>
@@ -306,7 +288,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>51</t>
@@ -407,6 +388,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>软件</t>
     </r>
     <r>
@@ -414,7 +401,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>52</t>
@@ -479,6 +465,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>软件</t>
     </r>
     <r>
@@ -486,7 +478,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>53</t>
@@ -551,6 +542,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
       <t>软件</t>
     </r>
     <r>
@@ -558,7 +555,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>54</t>
@@ -606,24 +602,18 @@
   <si>
     <t>尤丹雷</t>
   </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -634,45 +624,367 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -680,15 +992,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -696,39 +1259,68 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -775,7 +1367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -808,26 +1400,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -860,23 +1435,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1019,23 +1577,19 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1"/>
     <col min="2" max="3" width="9" style="1"/>
@@ -1045,228 +1599,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-    </row>
-    <row r="2" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:24">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="13" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
       <c r="E9">
         <v>1</v>
       </c>
@@ -1328,14 +1882,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A10" s="2">
+    <row r="10" ht="14.25" customHeight="1" spans="1:13">
+      <c r="A10" s="5">
         <v>2130506105</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
@@ -1344,33 +1898,33 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="6">
+      <c r="L10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="8">
         <v>2141601008</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
@@ -1382,30 +1936,30 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="6">
+      <c r="L11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="8">
         <v>2141601016</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
@@ -1417,30 +1971,30 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="6">
+      <c r="H12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8">
         <v>2151601001</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
@@ -1461,21 +2015,21 @@
       <c r="K13" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="6">
+      <c r="L13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="8">
         <v>2151601002</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
@@ -1490,27 +2044,27 @@
       <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="6">
+      <c r="L14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="8">
         <v>2151601003</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1"/>
@@ -1523,7 +2077,7 @@
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I15" t="s">
@@ -1532,56 +2086,56 @@
       <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="6">
+      <c r="L15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="8">
         <v>2151601004</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="5" t="s">
+      <c r="L16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="6">
+      <c r="A17" s="8">
         <v>2151601005</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
@@ -1602,21 +2156,21 @@
       <c r="K17" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="5" t="s">
+      <c r="L17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="6">
+      <c r="A18" s="8">
         <v>2151601007</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
@@ -1637,21 +2191,21 @@
       <c r="K18" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="5" t="s">
+      <c r="L18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="6">
+      <c r="A19" s="8">
         <v>2151601008</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
@@ -1672,21 +2226,21 @@
       <c r="K19" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="8" t="s">
+      <c r="L19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
         <v>2151601009</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
@@ -1707,21 +2261,21 @@
       <c r="K20" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="5" t="s">
+      <c r="L20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="6">
+      <c r="A21" s="8">
         <v>2151601010</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
@@ -1742,21 +2296,21 @@
       <c r="K21" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="5" t="s">
+      <c r="L21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="6">
+      <c r="A22" s="8">
         <v>2151601011</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
@@ -1777,21 +2331,21 @@
       <c r="K22" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="6">
+      <c r="A23" s="8">
         <v>2151601012</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
@@ -1812,21 +2366,21 @@
       <c r="K23" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="L23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="6">
+      <c r="A24" s="8">
         <v>2151601013</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
@@ -1847,21 +2401,21 @@
       <c r="K24" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="5" t="s">
+      <c r="L24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="6">
+      <c r="A25" s="8">
         <v>2151601014</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
@@ -1882,21 +2436,21 @@
       <c r="K25" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="5" t="s">
+      <c r="L25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="6">
+      <c r="A26" s="8">
         <v>2151601015</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
@@ -1917,21 +2471,21 @@
       <c r="K26" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="5" t="s">
+      <c r="L26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="6">
+      <c r="A27" s="8">
         <v>2151601016</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
@@ -1952,21 +2506,21 @@
       <c r="K27" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="L27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="6">
+      <c r="A28" s="8">
         <v>2151601017</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
@@ -1987,21 +2541,21 @@
       <c r="K28" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="5" t="s">
+      <c r="L28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="6">
+      <c r="A29" s="8">
         <v>2151601018</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
@@ -2013,30 +2567,30 @@
       <c r="G29" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="H29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K29" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="8" t="s">
+      <c r="L29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="6">
+      <c r="A30" s="8">
         <v>2151601019</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
@@ -2057,56 +2611,56 @@
       <c r="K30" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="5" t="s">
+      <c r="L30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="6">
+      <c r="A31" s="8">
         <v>2151800096</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="4" t="s">
+      <c r="E31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="6">
+      <c r="A32" s="8">
         <v>2151800107</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
@@ -2127,21 +2681,21 @@
       <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="5" t="s">
+      <c r="L32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="6">
+      <c r="A33" s="8">
         <v>2130506090</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E33" t="s">
@@ -2150,33 +2704,33 @@
       <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="8" t="s">
+      <c r="H33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="6">
+      <c r="A34" s="8">
         <v>2142010012</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E34" t="s">
@@ -2185,7 +2739,7 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H34" t="s">
@@ -2194,7 +2748,7 @@
       <c r="I34" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L34" t="s">
@@ -2205,83 +2759,83 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="6">
+      <c r="A35" s="8">
         <v>2150500035</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>95</v>
+      <c r="F35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="6">
+      <c r="A36" s="8">
         <v>2150508244</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" s="8" t="s">
+      <c r="E36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="6">
+      <c r="A37" s="8">
         <v>2150703012</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E37" t="s">
@@ -2290,16 +2844,16 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L37" t="s">
@@ -2310,13 +2864,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="6">
+      <c r="A38" s="8">
         <v>2151601020</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E38" t="s">
@@ -2325,7 +2879,7 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H38" t="s">
@@ -2334,7 +2888,7 @@
       <c r="I38" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L38" t="s">
@@ -2345,13 +2899,13 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="6">
+      <c r="A39" s="8">
         <v>2151601021</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
@@ -2360,7 +2914,7 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="s">
@@ -2369,7 +2923,7 @@
       <c r="I39" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L39" t="s">
@@ -2380,13 +2934,13 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="6">
+      <c r="A40" s="8">
         <v>2151601022</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E40" t="s">
@@ -2395,16 +2949,16 @@
       <c r="F40" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="5" t="s">
+      <c r="I40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L40" t="s">
@@ -2415,13 +2969,13 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="6">
+      <c r="A41" s="8">
         <v>2151601024</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E41" t="s">
@@ -2430,7 +2984,7 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H41" t="s">
@@ -2439,7 +2993,7 @@
       <c r="I41" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L41" t="s">
@@ -2450,13 +3004,13 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="6">
+      <c r="A42" s="8">
         <v>2151601027</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E42" t="s">
@@ -2465,33 +3019,33 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M42" s="8" t="s">
+      <c r="G42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="6">
+      <c r="A43" s="8">
         <v>2151601028</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E43" t="s">
@@ -2500,7 +3054,7 @@
       <c r="F43" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H43" t="s">
@@ -2509,7 +3063,7 @@
       <c r="I43" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L43" t="s">
@@ -2520,13 +3074,13 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="6">
+      <c r="A44" s="8">
         <v>2151601029</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E44" t="s">
@@ -2535,16 +3089,16 @@
       <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H44" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="5" t="s">
+      <c r="I44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L44" t="s">
@@ -2555,13 +3109,13 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="6">
+      <c r="A45" s="8">
         <v>2151601030</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E45" t="s">
@@ -2570,33 +3124,33 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="5" t="s">
+      <c r="I45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="8" t="s">
+      <c r="L45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="6">
+      <c r="A46" s="8">
         <v>2151601031</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E46" t="s">
@@ -2605,16 +3159,16 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="5" t="s">
+      <c r="I46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L46" t="s">
@@ -2625,13 +3179,13 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="6">
+      <c r="A47" s="8">
         <v>2151601032</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E47" t="s">
@@ -2640,7 +3194,7 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
@@ -2649,7 +3203,7 @@
       <c r="I47" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L47" t="s">
@@ -2660,13 +3214,13 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="6">
+      <c r="A48" s="8">
         <v>2151601033</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E48" t="s">
@@ -2675,16 +3229,16 @@
       <c r="F48" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="5" t="s">
+      <c r="I48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L48" t="s">
@@ -2695,13 +3249,13 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="6">
+      <c r="A49" s="8">
         <v>2151601034</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E49" t="s">
@@ -2710,16 +3264,16 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="5" t="s">
+      <c r="I49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L49" t="s">
@@ -2730,22 +3284,22 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="6">
+      <c r="A50" s="8">
         <v>2151601037</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="10" t="s">
+      <c r="E50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
@@ -2754,7 +3308,7 @@
       <c r="I50" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L50" t="s">
@@ -2765,13 +3319,13 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="6">
+      <c r="A51" s="8">
         <v>2151800040</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E51" t="s">
@@ -2780,7 +3334,7 @@
       <c r="F51" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H51" t="s">
@@ -2789,7 +3343,7 @@
       <c r="I51" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L51" t="s">
@@ -2800,48 +3354,48 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="6">
+      <c r="A52" s="8">
         <v>2140501050</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" s="4" t="s">
+      <c r="E52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="6">
+      <c r="A53" s="8">
         <v>2151200015</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E53" t="s">
@@ -2856,27 +3410,27 @@
       <c r="H53" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M53" s="4" t="s">
+      <c r="I53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="6">
+      <c r="A54" s="8">
         <v>2151601038</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E54" t="s">
@@ -2897,21 +3451,21 @@
       <c r="K54" t="s">
         <v>12</v>
       </c>
-      <c r="L54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="5" t="s">
+      <c r="L54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="6">
+      <c r="A55" s="8">
         <v>2151601039</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
@@ -2932,21 +3486,21 @@
       <c r="K55" t="s">
         <v>12</v>
       </c>
-      <c r="L55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="5" t="s">
+      <c r="L55" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="6">
+      <c r="A56" s="8">
         <v>2151601042</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E56" t="s">
@@ -2967,21 +3521,21 @@
       <c r="K56" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M56" s="5" t="s">
+      <c r="L56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="6">
+      <c r="A57" s="8">
         <v>2151601043</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E57" t="s">
@@ -2996,27 +3550,27 @@
       <c r="H57" t="s">
         <v>9</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K57" t="s">
         <v>11</v>
       </c>
-      <c r="L57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M57" s="5" t="s">
+      <c r="L57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="6">
+      <c r="A58" s="8">
         <v>2151601044</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E58" t="s">
@@ -3037,21 +3591,21 @@
       <c r="K58" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="5" t="s">
+      <c r="L58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="6">
+      <c r="A59" s="8">
         <v>2151601045</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E59" t="s">
@@ -3066,27 +3620,27 @@
       <c r="H59" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K59" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="5" t="s">
+      <c r="L59" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="6">
+      <c r="A60" s="8">
         <v>2151601046</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E60" t="s">
@@ -3107,21 +3661,21 @@
       <c r="K60" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M60" s="5" t="s">
+      <c r="L60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="6">
+      <c r="A61" s="8">
         <v>2151601047</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E61" t="s">
@@ -3142,21 +3696,21 @@
       <c r="K61" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="5" t="s">
+      <c r="L61" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="6">
+      <c r="A62" s="8">
         <v>2151601048</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E62" t="s">
@@ -3171,27 +3725,27 @@
       <c r="H62" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K62" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" s="5" t="s">
+      <c r="L62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="6">
+      <c r="A63" s="8">
         <v>2151601049</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E63" t="s">
@@ -3212,21 +3766,21 @@
       <c r="K63" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M63" s="5" t="s">
+      <c r="L63" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="6">
+      <c r="A64" s="8">
         <v>2151601050</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E64" t="s">
@@ -3241,27 +3795,27 @@
       <c r="H64" t="s">
         <v>9</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K64" t="s">
         <v>12</v>
       </c>
-      <c r="L64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M64" s="5" t="s">
+      <c r="L64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="6">
+      <c r="A65" s="8">
         <v>2151601051</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E65" t="s">
@@ -3276,27 +3830,27 @@
       <c r="H65" t="s">
         <v>9</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K65" t="s">
         <v>12</v>
       </c>
-      <c r="L65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M65" s="4" t="s">
+      <c r="L65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="6">
+      <c r="A66" s="8">
         <v>2151601052</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E66" t="s">
@@ -3311,27 +3865,27 @@
       <c r="H66" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K66" t="s">
         <v>12</v>
       </c>
-      <c r="L66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="4" t="s">
+      <c r="L66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="6">
+      <c r="A67" s="8">
         <v>2151601053</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E67" t="s">
@@ -3349,24 +3903,24 @@
       <c r="I67" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M67" s="4" t="s">
+      <c r="K67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="6">
+      <c r="A68" s="8">
         <v>2151601054</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E68" t="s">
@@ -3387,21 +3941,21 @@
       <c r="K68" t="s">
         <v>12</v>
       </c>
-      <c r="L68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M68" s="5" t="s">
+      <c r="L68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="6">
+      <c r="A69" s="8">
         <v>2151601055</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E69" t="s">
@@ -3416,27 +3970,27 @@
       <c r="H69" t="s">
         <v>9</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K69" t="s">
         <v>15</v>
       </c>
-      <c r="L69" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M69" s="5" t="s">
+      <c r="L69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="6">
+      <c r="A70" s="8">
         <v>2152004006</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E70" t="s">
@@ -3457,56 +4011,56 @@
       <c r="K70" t="s">
         <v>12</v>
       </c>
-      <c r="L70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M70" s="5" t="s">
+      <c r="L70" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="6">
+      <c r="A71" s="8">
         <v>2131601060</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M71" s="4" t="s">
+      <c r="E71" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="6">
+      <c r="A72" s="8">
         <v>2150900084</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E72" t="s">
@@ -3521,27 +4075,27 @@
       <c r="H72" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M72" s="5" t="s">
+      <c r="I72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="6">
+      <c r="A73" s="8">
         <v>2151601056</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E73" t="s">
@@ -3559,24 +4113,24 @@
       <c r="I73" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M73" s="5" t="s">
+      <c r="K73" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="6">
+      <c r="A74" s="8">
         <v>2151601057</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E74" t="s">
@@ -3594,24 +4148,24 @@
       <c r="I74" t="s">
         <v>16</v>
       </c>
-      <c r="K74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M74" s="5" t="s">
+      <c r="K74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="6">
+      <c r="A75" s="8">
         <v>2151601058</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E75" t="s">
@@ -3629,24 +4183,24 @@
       <c r="I75" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="5" t="s">
+      <c r="K75" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="6">
+      <c r="A76" s="8">
         <v>2151601059</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E76" t="s">
@@ -3664,24 +4218,24 @@
       <c r="I76" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="5" t="s">
+      <c r="K76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="6">
+      <c r="A77" s="8">
         <v>2151601061</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E77" t="s">
@@ -3699,24 +4253,24 @@
       <c r="I77" t="s">
         <v>12</v>
       </c>
-      <c r="K77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M77" s="5" t="s">
+      <c r="K77" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="6">
+      <c r="A78" s="8">
         <v>2151601062</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E78" t="s">
@@ -3725,7 +4279,7 @@
       <c r="F78" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H78" t="s">
@@ -3734,24 +4288,24 @@
       <c r="I78" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M78" s="5" t="s">
+      <c r="K78" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="6">
+      <c r="A79" s="8">
         <v>2151601063</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E79" t="s">
@@ -3760,33 +4314,33 @@
       <c r="F79" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H79" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M79" s="4" t="s">
+      <c r="I79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M79" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="6">
+      <c r="A80" s="8">
         <v>2151601064</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E80" t="s">
@@ -3795,68 +4349,68 @@
       <c r="F80" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H80" t="s">
         <v>16</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M80" s="4" t="s">
+      <c r="I80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="6">
+      <c r="A81" s="8">
         <v>2151601065</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="4" t="s">
+      <c r="F81" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H81" t="s">
         <v>16</v>
       </c>
-      <c r="I81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M81" s="4" t="s">
+      <c r="I81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="6">
+      <c r="A82" s="8">
         <v>2151601066</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E82" t="s">
@@ -3871,27 +4425,27 @@
       <c r="H82" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L82" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M82" s="5" t="s">
+      <c r="I82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="6">
+      <c r="A83" s="8">
         <v>2151601067</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E83" t="s">
@@ -3909,24 +4463,24 @@
       <c r="I83" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M83" s="5" t="s">
+      <c r="K83" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="6">
+      <c r="A84" s="8">
         <v>2151601070</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E84" t="s">
@@ -3944,24 +4498,24 @@
       <c r="I84" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L84" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M84" s="5" t="s">
+      <c r="K84" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="6">
+      <c r="A85" s="8">
         <v>2151601071</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E85" t="s">
@@ -3979,28 +4533,28 @@
       <c r="I85" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M85" s="5" t="s">
+      <c r="K85" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="12" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:X7"/>
+    <mergeCell ref="E8:T8"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="A2:X7"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/名单.xlsx
+++ b/名单.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="97">
   <si>
     <t>西安交通大学学生考勤、考核表</t>
   </si>
@@ -33,6 +38,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2016-2017</t>
@@ -51,6 +57,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
@@ -70,6 +77,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>SOFT410711    </t>
@@ -88,6 +96,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(01)    </t>
@@ -106,6 +115,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(40)[</t>
@@ -124,6 +134,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">] </t>
@@ -142,6 +153,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1-10 </t>
@@ -160,6 +172,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">(3-4),1-10 </t>
@@ -178,6 +191,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(1-2)(</t>
@@ -196,6 +210,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3 3303) </t>
@@ -214,6 +229,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/</t>
@@ -232,6 +248,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>48.0 / 3.0    </t>
@@ -250,6 +267,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>76</t>
@@ -288,6 +306,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>51</t>
@@ -401,6 +420,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>52</t>
@@ -478,6 +498,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>53</t>
@@ -555,6 +576,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>54</t>
@@ -602,18 +624,20 @@
   <si>
     <t>尤丹雷</t>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -636,355 +660,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -992,264 +686,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1268,59 +711,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1581,15 +994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1"/>
     <col min="2" max="3" width="9" style="1"/>
@@ -1599,228 +1011,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:24">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+    </row>
+    <row r="2" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="4" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9">
         <v>1</v>
       </c>
@@ -1882,14 +1294,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A10" s="5">
+    <row r="10" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A10" s="2">
         <v>2130506105</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
@@ -1898,33 +1310,33 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="8">
+      <c r="L10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="5">
         <v>2141601008</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
@@ -1936,30 +1348,30 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="8">
+      <c r="L11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="5">
         <v>2141601016</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
@@ -1971,30 +1383,30 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="8">
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="5">
         <v>2151601001</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
@@ -2015,21 +1427,21 @@
       <c r="K13" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="8">
+      <c r="L13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="5">
         <v>2151601002</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
@@ -2044,27 +1456,27 @@
       <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="8">
+      <c r="L14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="5">
         <v>2151601003</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1"/>
@@ -2077,7 +1489,7 @@
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I15" t="s">
@@ -2086,21 +1498,21 @@
       <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="8">
+      <c r="L15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="5">
         <v>2151601004</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
@@ -2115,27 +1527,27 @@
       <c r="H16" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="12" t="s">
+      <c r="L16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="8">
+      <c r="A17" s="5">
         <v>2151601005</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
@@ -2156,21 +1568,21 @@
       <c r="K17" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="12" t="s">
+      <c r="L17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>2151601007</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
@@ -2191,21 +1603,21 @@
       <c r="K18" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="12" t="s">
+      <c r="L18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <v>2151601008</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
@@ -2226,21 +1638,21 @@
       <c r="K19" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="7" t="s">
+      <c r="L19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <v>2151601009</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
@@ -2261,21 +1673,21 @@
       <c r="K20" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="12" t="s">
+      <c r="L20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <v>2151601010</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
@@ -2296,21 +1708,21 @@
       <c r="K21" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="12" t="s">
+      <c r="L21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="8">
+      <c r="A22" s="5">
         <v>2151601011</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
@@ -2331,21 +1743,21 @@
       <c r="K22" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="12" t="s">
+      <c r="L22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="8">
+      <c r="A23" s="5">
         <v>2151601012</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
@@ -2366,21 +1778,21 @@
       <c r="K23" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="12" t="s">
+      <c r="L23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="8">
+      <c r="A24" s="5">
         <v>2151601013</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
@@ -2401,21 +1813,21 @@
       <c r="K24" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="12" t="s">
+      <c r="L24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <v>2151601014</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
@@ -2436,21 +1848,21 @@
       <c r="K25" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="12" t="s">
+      <c r="L25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="8">
+      <c r="A26" s="5">
         <v>2151601015</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
@@ -2471,21 +1883,21 @@
       <c r="K26" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="12" t="s">
+      <c r="L26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="8">
+      <c r="A27" s="5">
         <v>2151601016</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
@@ -2506,21 +1918,21 @@
       <c r="K27" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="12" t="s">
+      <c r="L27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="8">
+      <c r="A28" s="5">
         <v>2151601017</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
@@ -2541,21 +1953,21 @@
       <c r="K28" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="12" t="s">
+      <c r="L28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="8">
+      <c r="A29" s="5">
         <v>2151601018</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
@@ -2567,30 +1979,30 @@
       <c r="G29" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="H29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K29" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="7" t="s">
+      <c r="L29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="8">
+      <c r="A30" s="5">
         <v>2151601019</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
@@ -2611,56 +2023,56 @@
       <c r="K30" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="12" t="s">
+      <c r="L30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="8">
+      <c r="A31" s="5">
         <v>2151800096</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="7" t="s">
+      <c r="E31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="8">
+      <c r="A32" s="5">
         <v>2151800107</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
@@ -2681,21 +2093,21 @@
       <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="12" t="s">
+      <c r="L32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="8">
+      <c r="A33" s="5">
         <v>2130506090</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E33" t="s">
@@ -2704,33 +2116,33 @@
       <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="7" t="s">
+      <c r="G33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="8">
+      <c r="A34" s="5">
         <v>2142010012</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E34" t="s">
@@ -2739,7 +2151,7 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H34" t="s">
@@ -2748,7 +2160,7 @@
       <c r="I34" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L34" t="s">
@@ -2759,83 +2171,83 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="8">
+      <c r="A35" s="5">
         <v>2150500035</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="12" t="s">
+      <c r="F35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="8">
+      <c r="A36" s="5">
         <v>2150508244</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" s="7" t="s">
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="8">
+      <c r="A37" s="5">
         <v>2150703012</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E37" t="s">
@@ -2844,16 +2256,16 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="12" t="s">
+      <c r="I37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L37" t="s">
@@ -2864,13 +2276,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="8">
+      <c r="A38" s="5">
         <v>2151601020</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E38" t="s">
@@ -2879,7 +2291,7 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H38" t="s">
@@ -2888,7 +2300,7 @@
       <c r="I38" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L38" t="s">
@@ -2899,13 +2311,13 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="8">
+      <c r="A39" s="5">
         <v>2151601021</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
@@ -2914,7 +2326,7 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="s">
@@ -2923,7 +2335,7 @@
       <c r="I39" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L39" t="s">
@@ -2934,13 +2346,13 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="8">
+      <c r="A40" s="5">
         <v>2151601022</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E40" t="s">
@@ -2949,16 +2361,16 @@
       <c r="F40" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="12" t="s">
+      <c r="I40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L40" t="s">
@@ -2969,13 +2381,13 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="8">
+      <c r="A41" s="5">
         <v>2151601024</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E41" t="s">
@@ -2984,7 +2396,7 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H41" t="s">
@@ -2993,7 +2405,7 @@
       <c r="I41" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L41" t="s">
@@ -3004,13 +2416,13 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="8">
+      <c r="A42" s="5">
         <v>2151601027</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E42" t="s">
@@ -3019,51 +2431,51 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M42" s="7" t="s">
+      <c r="G42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="8">
+      <c r="A43" s="5">
         <v>2151601028</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>15</v>
+      <c r="F43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
       </c>
-      <c r="I43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="12" t="s">
+      <c r="I43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K43" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L43" t="s">
@@ -3074,13 +2486,13 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="8">
+      <c r="A44" s="5">
         <v>2151601029</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E44" t="s">
@@ -3089,16 +2501,16 @@
       <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H44" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="12" t="s">
+      <c r="I44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L44" t="s">
@@ -3109,13 +2521,13 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="8">
+      <c r="A45" s="5">
         <v>2151601030</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E45" t="s">
@@ -3124,33 +2536,33 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="7" t="s">
+      <c r="I45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="8">
+      <c r="A46" s="5">
         <v>2151601031</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E46" t="s">
@@ -3159,16 +2571,16 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="12" t="s">
+      <c r="I46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L46" t="s">
@@ -3179,13 +2591,13 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="8">
+      <c r="A47" s="5">
         <v>2151601032</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E47" t="s">
@@ -3194,7 +2606,7 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
@@ -3203,7 +2615,7 @@
       <c r="I47" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L47" t="s">
@@ -3214,13 +2626,13 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="8">
+      <c r="A48" s="5">
         <v>2151601033</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E48" t="s">
@@ -3229,16 +2641,16 @@
       <c r="F48" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="I48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L48" t="s">
@@ -3249,13 +2661,13 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="8">
+      <c r="A49" s="5">
         <v>2151601034</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E49" t="s">
@@ -3264,16 +2676,16 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="12" t="s">
+      <c r="I49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L49" t="s">
@@ -3284,22 +2696,22 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="8">
+      <c r="A50" s="5">
         <v>2151601037</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="11" t="s">
+      <c r="E50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
@@ -3308,7 +2720,7 @@
       <c r="I50" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L50" t="s">
@@ -3319,13 +2731,13 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="8">
+      <c r="A51" s="5">
         <v>2151800040</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E51" t="s">
@@ -3334,7 +2746,7 @@
       <c r="F51" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H51" t="s">
@@ -3343,7 +2755,7 @@
       <c r="I51" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="12" t="s">
+      <c r="K51" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L51" t="s">
@@ -3354,48 +2766,48 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="8">
+      <c r="A52" s="5">
         <v>2140501050</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" s="7" t="s">
+      <c r="E52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="8">
+      <c r="A53" s="5">
         <v>2151200015</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E53" t="s">
@@ -3410,27 +2822,27 @@
       <c r="H53" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M53" s="7" t="s">
+      <c r="I53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="8">
+      <c r="A54" s="5">
         <v>2151601038</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E54" t="s">
@@ -3451,21 +2863,21 @@
       <c r="K54" t="s">
         <v>12</v>
       </c>
-      <c r="L54" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="12" t="s">
+      <c r="L54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="8">
+      <c r="A55" s="5">
         <v>2151601039</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
@@ -3486,21 +2898,21 @@
       <c r="K55" t="s">
         <v>12</v>
       </c>
-      <c r="L55" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="12" t="s">
+      <c r="L55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="8">
+      <c r="A56" s="5">
         <v>2151601042</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E56" t="s">
@@ -3521,21 +2933,21 @@
       <c r="K56" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M56" s="12" t="s">
+      <c r="L56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="8">
+      <c r="A57" s="5">
         <v>2151601043</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E57" t="s">
@@ -3550,27 +2962,27 @@
       <c r="H57" t="s">
         <v>9</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K57" t="s">
         <v>11</v>
       </c>
-      <c r="L57" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M57" s="12" t="s">
+      <c r="L57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="8">
+      <c r="A58" s="5">
         <v>2151601044</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E58" t="s">
@@ -3591,21 +3003,21 @@
       <c r="K58" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="12" t="s">
+      <c r="L58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="8">
+      <c r="A59" s="5">
         <v>2151601045</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E59" t="s">
@@ -3620,27 +3032,27 @@
       <c r="H59" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K59" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="12" t="s">
+      <c r="L59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="8">
+      <c r="A60" s="5">
         <v>2151601046</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E60" t="s">
@@ -3661,21 +3073,21 @@
       <c r="K60" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M60" s="12" t="s">
+      <c r="L60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="8">
+      <c r="A61" s="5">
         <v>2151601047</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E61" t="s">
@@ -3696,21 +3108,21 @@
       <c r="K61" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="12" t="s">
+      <c r="L61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="8">
+      <c r="A62" s="5">
         <v>2151601048</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E62" t="s">
@@ -3725,27 +3137,27 @@
       <c r="H62" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K62" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" s="12" t="s">
+      <c r="L62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="8">
+      <c r="A63" s="5">
         <v>2151601049</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E63" t="s">
@@ -3766,21 +3178,21 @@
       <c r="K63" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M63" s="12" t="s">
+      <c r="L63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="8">
+      <c r="A64" s="5">
         <v>2151601050</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E64" t="s">
@@ -3795,27 +3207,27 @@
       <c r="H64" t="s">
         <v>9</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K64" t="s">
         <v>12</v>
       </c>
-      <c r="L64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M64" s="12" t="s">
+      <c r="L64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="8">
+      <c r="A65" s="5">
         <v>2151601051</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E65" t="s">
@@ -3830,27 +3242,27 @@
       <c r="H65" t="s">
         <v>9</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K65" t="s">
         <v>12</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M65" s="7" t="s">
+      <c r="L65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="8">
+      <c r="A66" s="5">
         <v>2151601052</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E66" t="s">
@@ -3865,27 +3277,27 @@
       <c r="H66" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K66" t="s">
         <v>12</v>
       </c>
-      <c r="L66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="7" t="s">
+      <c r="L66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="8">
+      <c r="A67" s="5">
         <v>2151601053</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E67" t="s">
@@ -3903,24 +3315,24 @@
       <c r="I67" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M67" s="7" t="s">
+      <c r="K67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="8">
+      <c r="A68" s="5">
         <v>2151601054</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E68" t="s">
@@ -3941,21 +3353,21 @@
       <c r="K68" t="s">
         <v>12</v>
       </c>
-      <c r="L68" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M68" s="12" t="s">
+      <c r="L68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="8">
+      <c r="A69" s="5">
         <v>2151601055</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E69" t="s">
@@ -3970,27 +3382,27 @@
       <c r="H69" t="s">
         <v>9</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K69" t="s">
         <v>15</v>
       </c>
-      <c r="L69" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M69" s="12" t="s">
+      <c r="L69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="8">
+      <c r="A70" s="5">
         <v>2152004006</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E70" t="s">
@@ -4011,56 +3423,56 @@
       <c r="K70" t="s">
         <v>12</v>
       </c>
-      <c r="L70" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M70" s="12" t="s">
+      <c r="L70" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="8">
+      <c r="A71" s="5">
         <v>2131601060</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M71" s="7" t="s">
+      <c r="E71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="8">
+      <c r="A72" s="5">
         <v>2150900084</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E72" t="s">
@@ -4075,27 +3487,27 @@
       <c r="H72" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M72" s="12" t="s">
+      <c r="I72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="8">
+      <c r="A73" s="5">
         <v>2151601056</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E73" t="s">
@@ -4113,24 +3525,24 @@
       <c r="I73" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M73" s="12" t="s">
+      <c r="K73" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="8">
+      <c r="A74" s="5">
         <v>2151601057</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E74" t="s">
@@ -4148,24 +3560,24 @@
       <c r="I74" t="s">
         <v>16</v>
       </c>
-      <c r="K74" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M74" s="12" t="s">
+      <c r="K74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="8">
+      <c r="A75" s="5">
         <v>2151601058</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E75" t="s">
@@ -4183,24 +3595,24 @@
       <c r="I75" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="12" t="s">
+      <c r="K75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="8">
+      <c r="A76" s="5">
         <v>2151601059</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E76" t="s">
@@ -4218,24 +3630,24 @@
       <c r="I76" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="12" t="s">
+      <c r="K76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="8">
+      <c r="A77" s="5">
         <v>2151601061</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E77" t="s">
@@ -4253,24 +3665,24 @@
       <c r="I77" t="s">
         <v>12</v>
       </c>
-      <c r="K77" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M77" s="12" t="s">
+      <c r="K77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="8">
+      <c r="A78" s="5">
         <v>2151601062</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E78" t="s">
@@ -4279,7 +3691,7 @@
       <c r="F78" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H78" t="s">
@@ -4288,24 +3700,24 @@
       <c r="I78" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L78" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M78" s="12" t="s">
+      <c r="K78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="8">
+      <c r="A79" s="5">
         <v>2151601063</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E79" t="s">
@@ -4314,33 +3726,33 @@
       <c r="F79" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H79" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K79" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M79" s="7" t="s">
+      <c r="I79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="8">
+      <c r="A80" s="5">
         <v>2151601064</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E80" t="s">
@@ -4349,68 +3761,68 @@
       <c r="F80" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H80" t="s">
         <v>16</v>
       </c>
-      <c r="I80" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M80" s="7" t="s">
+      <c r="I80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="8">
+      <c r="A81" s="5">
         <v>2151601065</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="7" t="s">
+      <c r="F81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H81" t="s">
         <v>16</v>
       </c>
-      <c r="I81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K81" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M81" s="7" t="s">
+      <c r="I81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="8">
+      <c r="A82" s="5">
         <v>2151601066</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E82" t="s">
@@ -4425,27 +3837,27 @@
       <c r="H82" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K82" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L82" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M82" s="12" t="s">
+      <c r="I82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="8">
+      <c r="A83" s="5">
         <v>2151601067</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E83" t="s">
@@ -4463,24 +3875,24 @@
       <c r="I83" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L83" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M83" s="12" t="s">
+      <c r="K83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="8">
+      <c r="A84" s="5">
         <v>2151601070</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E84" t="s">
@@ -4498,24 +3910,24 @@
       <c r="I84" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L84" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M84" s="12" t="s">
+      <c r="K84" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="8">
+      <c r="A85" s="5">
         <v>2151601071</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E85" t="s">
@@ -4533,13 +3945,13 @@
       <c r="I85" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L85" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M85" s="12" t="s">
+      <c r="K85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4553,8 +3965,8 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="A2:X7"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/名单.xlsx
+++ b/名单.xlsx
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:X51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2100,7 +2100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:24">
       <c r="A33" s="5">
         <v>2130506090</v>
       </c>
@@ -2134,8 +2134,11 @@
       <c r="M33" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="X33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="5">
         <v>2142010012</v>
       </c>
@@ -2169,8 +2172,11 @@
       <c r="M34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="X34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="5">
         <v>2150500035</v>
       </c>
@@ -2204,8 +2210,11 @@
       <c r="M35" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="X35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="5">
         <v>2150508244</v>
       </c>
@@ -2239,8 +2248,11 @@
       <c r="M36" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="5">
         <v>2150703012</v>
       </c>
@@ -2274,8 +2286,11 @@
       <c r="M37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="X37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="5">
         <v>2151601020</v>
       </c>
@@ -2309,8 +2324,11 @@
       <c r="M38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="X38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="5">
         <v>2151601021</v>
       </c>
@@ -2344,8 +2362,11 @@
       <c r="M39" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="X39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="5">
         <v>2151601022</v>
       </c>
@@ -2379,8 +2400,11 @@
       <c r="M40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="X40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="5">
         <v>2151601024</v>
       </c>
@@ -2414,8 +2438,11 @@
       <c r="M41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="X41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="5">
         <v>2151601027</v>
       </c>
@@ -2449,8 +2476,11 @@
       <c r="M42" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="X42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="5">
         <v>2151601028</v>
       </c>
@@ -2484,8 +2514,11 @@
       <c r="M43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="X43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="5">
         <v>2151601029</v>
       </c>
@@ -2519,8 +2552,11 @@
       <c r="M44" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="X44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="5">
         <v>2151601030</v>
       </c>
@@ -2554,8 +2590,11 @@
       <c r="M45" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="X45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="5">
         <v>2151601031</v>
       </c>
@@ -2589,8 +2628,11 @@
       <c r="M46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="X46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="5">
         <v>2151601032</v>
       </c>
@@ -2624,8 +2666,11 @@
       <c r="M47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="X47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="5">
         <v>2151601033</v>
       </c>
@@ -2659,8 +2704,11 @@
       <c r="M48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="X48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="5">
         <v>2151601034</v>
       </c>
@@ -2694,8 +2742,11 @@
       <c r="M49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="X49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="5">
         <v>2151601037</v>
       </c>
@@ -2729,8 +2780,11 @@
       <c r="M50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="X50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="5">
         <v>2151800040</v>
       </c>
@@ -2764,8 +2818,11 @@
       <c r="M51" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="X51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="5">
         <v>2140501050</v>
       </c>
@@ -2799,8 +2856,11 @@
       <c r="M52" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="5">
         <v>2151200015</v>
       </c>
@@ -2834,8 +2894,11 @@
       <c r="M53" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="X53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="5">
         <v>2151601038</v>
       </c>
@@ -2870,7 +2933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:24">
       <c r="A55" s="5">
         <v>2151601039</v>
       </c>
@@ -2905,7 +2968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:24">
       <c r="A56" s="5">
         <v>2151601042</v>
       </c>
@@ -2940,7 +3003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:24">
       <c r="A57" s="5">
         <v>2151601043</v>
       </c>
@@ -2975,7 +3038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:24">
       <c r="A58" s="5">
         <v>2151601044</v>
       </c>
@@ -3010,7 +3073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:24">
       <c r="A59" s="5">
         <v>2151601045</v>
       </c>
@@ -3045,7 +3108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:24">
       <c r="A60" s="5">
         <v>2151601046</v>
       </c>
@@ -3080,7 +3143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:24">
       <c r="A61" s="5">
         <v>2151601047</v>
       </c>
@@ -3115,7 +3178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:24">
       <c r="A62" s="5">
         <v>2151601048</v>
       </c>
@@ -3150,7 +3213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:24">
       <c r="A63" s="5">
         <v>2151601049</v>
       </c>
@@ -3185,7 +3248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:24">
       <c r="A64" s="5">
         <v>2151601050</v>
       </c>

--- a/名单.xlsx
+++ b/名单.xlsx
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:X51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Y68" sqref="Y68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2895,7 +2895,7 @@
         <v>10</v>
       </c>
       <c r="X53">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -2932,6 +2932,9 @@
       <c r="M54" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="X54">
+        <v>15</v>
+      </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="5">
@@ -2967,6 +2970,9 @@
       <c r="M55" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="X55">
+        <v>15</v>
+      </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="5">
@@ -3002,6 +3008,9 @@
       <c r="M56" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="X56">
+        <v>14</v>
+      </c>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="5">
@@ -3037,6 +3046,9 @@
       <c r="M57" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="X57">
+        <v>13</v>
+      </c>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="5">
@@ -3072,6 +3084,9 @@
       <c r="M58" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="X58">
+        <v>14</v>
+      </c>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="5">
@@ -3107,6 +3122,9 @@
       <c r="M59" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="X59">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="5">
@@ -3142,6 +3160,9 @@
       <c r="M60" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="X60">
+        <v>14</v>
+      </c>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="5">
@@ -3177,6 +3198,9 @@
       <c r="M61" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="X61">
+        <v>15</v>
+      </c>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="5">
@@ -3212,6 +3236,9 @@
       <c r="M62" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="X62">
+        <v>13</v>
+      </c>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="5">
@@ -3247,6 +3274,9 @@
       <c r="M63" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="X63">
+        <v>14</v>
+      </c>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="5">
@@ -3282,8 +3312,11 @@
       <c r="M64" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="X64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="5">
         <v>2151601051</v>
       </c>
@@ -3317,8 +3350,11 @@
       <c r="M65" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="X65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="5">
         <v>2151601052</v>
       </c>
@@ -3352,8 +3388,11 @@
       <c r="M66" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="X66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="5">
         <v>2151601053</v>
       </c>
@@ -3387,8 +3426,11 @@
       <c r="M67" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="X67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="5">
         <v>2151601054</v>
       </c>
@@ -3422,8 +3464,11 @@
       <c r="M68" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="X68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="5">
         <v>2151601055</v>
       </c>
@@ -3457,8 +3502,11 @@
       <c r="M69" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="X69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="5">
         <v>2152004006</v>
       </c>
@@ -3492,8 +3540,11 @@
       <c r="M70" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="X70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="5">
         <v>2131601060</v>
       </c>
@@ -3528,7 +3579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:24">
       <c r="A72" s="5">
         <v>2150900084</v>
       </c>
@@ -3563,7 +3614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:24">
       <c r="A73" s="5">
         <v>2151601056</v>
       </c>
@@ -3598,7 +3649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:24">
       <c r="A74" s="5">
         <v>2151601057</v>
       </c>
@@ -3633,7 +3684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:24">
       <c r="A75" s="5">
         <v>2151601058</v>
       </c>
@@ -3668,7 +3719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:24">
       <c r="A76" s="5">
         <v>2151601059</v>
       </c>
@@ -3703,7 +3754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:24">
       <c r="A77" s="5">
         <v>2151601061</v>
       </c>
@@ -3738,7 +3789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:24">
       <c r="A78" s="5">
         <v>2151601062</v>
       </c>
@@ -3773,7 +3824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:24">
       <c r="A79" s="5">
         <v>2151601063</v>
       </c>
@@ -3808,7 +3859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:24">
       <c r="A80" s="5">
         <v>2151601064</v>
       </c>

--- a/名单.xlsx
+++ b/名单.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="98">
   <si>
     <t>西安交通大学学生考勤、考核表</t>
   </si>
@@ -632,11 +627,15 @@
     <t>A</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -994,14 +993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="Y68" sqref="Y68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="X71" sqref="X71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.625" style="1"/>
     <col min="2" max="3" width="9" style="1"/>
@@ -3570,13 +3569,16 @@
         <v>10</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="X71">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -3613,6 +3615,9 @@
       <c r="M72" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="X72">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" spans="1:24">
       <c r="A73" s="5">
@@ -3648,6 +3653,9 @@
       <c r="M73" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="X73">
+        <v>12</v>
+      </c>
     </row>
     <row r="74" spans="1:24">
       <c r="A74" s="5">
@@ -3683,6 +3691,9 @@
       <c r="M74" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="X74">
+        <v>11</v>
+      </c>
     </row>
     <row r="75" spans="1:24">
       <c r="A75" s="5">
@@ -3718,6 +3729,9 @@
       <c r="M75" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="X75">
+        <v>11</v>
+      </c>
     </row>
     <row r="76" spans="1:24">
       <c r="A76" s="5">
@@ -3753,6 +3767,9 @@
       <c r="M76" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="X76">
+        <v>13</v>
+      </c>
     </row>
     <row r="77" spans="1:24">
       <c r="A77" s="5">
@@ -3788,6 +3805,9 @@
       <c r="M77" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="X77">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" spans="1:24">
       <c r="A78" s="5">
@@ -3823,6 +3843,9 @@
       <c r="M78" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="X78">
+        <v>11</v>
+      </c>
     </row>
     <row r="79" spans="1:24">
       <c r="A79" s="5">
@@ -3858,6 +3881,9 @@
       <c r="M79" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="X79">
+        <v>7</v>
+      </c>
     </row>
     <row r="80" spans="1:24">
       <c r="A80" s="5">
@@ -3893,8 +3919,11 @@
       <c r="M80" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="X80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" s="5">
         <v>2151601065</v>
       </c>
@@ -3928,8 +3957,11 @@
       <c r="M81" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="X81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" s="5">
         <v>2151601066</v>
       </c>
@@ -3963,8 +3995,11 @@
       <c r="M82" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="X82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" s="5">
         <v>2151601067</v>
       </c>
@@ -3998,8 +4033,11 @@
       <c r="M83" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="X83">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" s="5">
         <v>2151601070</v>
       </c>
@@ -4033,8 +4071,11 @@
       <c r="M84" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="X84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" s="5">
         <v>2151601071</v>
       </c>
@@ -4067,6 +4108,9 @@
       </c>
       <c r="M85" s="9" t="s">
         <v>12</v>
+      </c>
+      <c r="X85">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/名单.xlsx
+++ b/名单.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>西安交通大学学生考勤、考核表</t>
   </si>
@@ -33,7 +33,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2016-2017</t>
@@ -52,7 +51,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">)
@@ -72,7 +70,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>SOFT410711    </t>
@@ -91,7 +88,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(01)    </t>
@@ -110,7 +106,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(40)[</t>
@@ -129,7 +124,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">] </t>
@@ -148,7 +142,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1-10 </t>
@@ -167,7 +160,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">(3-4),1-10 </t>
@@ -186,7 +178,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(1-2)(</t>
@@ -205,7 +196,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3 3303) </t>
@@ -224,7 +214,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>/</t>
@@ -243,7 +232,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>48.0 / 3.0    </t>
@@ -262,7 +250,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>76</t>
@@ -301,7 +288,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>51</t>
@@ -415,7 +401,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>52</t>
@@ -493,7 +478,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>53</t>
@@ -571,7 +555,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>54</t>
@@ -618,25 +601,19 @@
   </si>
   <si>
     <t>尤丹雷</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A+</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -659,25 +636,355 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -685,15 +992,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -710,27 +1268,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -993,11 +1586,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="X71" sqref="X71"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1009,229 +1603,229 @@
     <col min="25" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="14.25" spans="1:24">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-    </row>
-    <row r="2" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:24">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="11" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:20">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
       <c r="E9">
         <v>1</v>
       </c>
@@ -1293,14 +1887,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A10" s="2">
+    <row r="10" ht="14.25" customHeight="1" spans="1:24">
+      <c r="A10" s="5">
         <v>2130506105</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
@@ -1309,33 +1903,36 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="5">
+      <c r="L10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:24">
+      <c r="A11" s="8">
         <v>2141601008</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
@@ -1347,30 +1944,33 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="5">
+      <c r="L11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:24">
+      <c r="A12" s="8">
         <v>2141601016</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
@@ -1382,30 +1982,33 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="5">
+      <c r="H12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:24">
+      <c r="A13" s="8">
         <v>2151601001</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
@@ -1426,21 +2029,24 @@
       <c r="K13" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="5">
+      <c r="L13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:24">
+      <c r="A14" s="8">
         <v>2151601002</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
@@ -1455,27 +2061,30 @@
       <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="5">
+      <c r="L14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:24">
+      <c r="A15" s="8">
         <v>2151601003</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1"/>
@@ -1488,7 +2097,7 @@
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I15" t="s">
@@ -1497,21 +2106,24 @@
       <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="5">
+      <c r="L15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:24">
+      <c r="A16" s="8">
         <v>2151601004</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
@@ -1526,27 +2138,30 @@
       <c r="H16" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="5">
+      <c r="L16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:24">
+      <c r="A17" s="8">
         <v>2151601005</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
@@ -1567,21 +2182,24 @@
       <c r="K17" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="5">
+      <c r="L17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:24">
+      <c r="A18" s="8">
         <v>2151601007</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
@@ -1602,21 +2220,24 @@
       <c r="K18" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="5">
+      <c r="L18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="X18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:24">
+      <c r="A19" s="8">
         <v>2151601008</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
@@ -1637,21 +2258,24 @@
       <c r="K19" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="5">
+      <c r="L19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:24">
+      <c r="A20" s="8">
         <v>2151601009</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
@@ -1672,21 +2296,24 @@
       <c r="K20" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="5">
+      <c r="L20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:24">
+      <c r="A21" s="8">
         <v>2151601010</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
@@ -1707,21 +2334,24 @@
       <c r="K21" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="5">
+      <c r="L21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:24">
+      <c r="A22" s="8">
         <v>2151601011</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
@@ -1742,21 +2372,24 @@
       <c r="K22" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="5">
+      <c r="L22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:24">
+      <c r="A23" s="8">
         <v>2151601012</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
@@ -1777,21 +2410,24 @@
       <c r="K23" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="5">
+      <c r="L23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="X23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:24">
+      <c r="A24" s="8">
         <v>2151601013</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
@@ -1812,21 +2448,24 @@
       <c r="K24" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="5">
+      <c r="L24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:24">
+      <c r="A25" s="8">
         <v>2151601014</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
@@ -1847,21 +2486,24 @@
       <c r="K25" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="5">
+      <c r="L25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:24">
+      <c r="A26" s="8">
         <v>2151601015</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
@@ -1882,21 +2524,24 @@
       <c r="K26" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="5">
+      <c r="L26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:24">
+      <c r="A27" s="8">
         <v>2151601016</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
@@ -1917,21 +2562,24 @@
       <c r="K27" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="5">
+      <c r="L27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:24">
+      <c r="A28" s="8">
         <v>2151601017</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
@@ -1952,21 +2600,24 @@
       <c r="K28" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="5">
+      <c r="L28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:24">
+      <c r="A29" s="8">
         <v>2151601018</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
@@ -1978,30 +2629,33 @@
       <c r="G29" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="H29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K29" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="5">
+      <c r="L29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:24">
+      <c r="A30" s="8">
         <v>2151601019</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
@@ -2022,56 +2676,62 @@
       <c r="K30" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="5">
+      <c r="L30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:24">
+      <c r="A31" s="8">
         <v>2151800096</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="5">
+      <c r="E31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:24">
+      <c r="A32" s="8">
         <v>2151800107</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
@@ -2092,21 +2752,24 @@
       <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
-      <c r="A33" s="5">
+      <c r="L32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:24">
+      <c r="A33" s="8">
         <v>2130506090</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E33" t="s">
@@ -2115,36 +2778,36 @@
       <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="4" t="s">
+      <c r="G33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X33">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
-      <c r="A34" s="5">
+    <row r="34" ht="14.25" spans="1:24">
+      <c r="A34" s="8">
         <v>2142010012</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E34" t="s">
@@ -2153,7 +2816,7 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H34" t="s">
@@ -2162,7 +2825,7 @@
       <c r="I34" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L34" t="s">
@@ -2175,90 +2838,90 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
-      <c r="A35" s="5">
+    <row r="35" ht="14.25" spans="1:24">
+      <c r="A35" s="8">
         <v>2150500035</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="9" t="s">
+      <c r="F35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="12" t="s">
         <v>11</v>
       </c>
       <c r="X35">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
-      <c r="A36" s="5">
+    <row r="36" ht="14.25" spans="1:24">
+      <c r="A36" s="8">
         <v>2150508244</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" s="4" t="s">
+      <c r="E36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
-      <c r="A37" s="5">
+    <row r="37" ht="14.25" spans="1:24">
+      <c r="A37" s="8">
         <v>2150703012</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E37" t="s">
@@ -2267,16 +2930,16 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="9" t="s">
+      <c r="I37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L37" t="s">
@@ -2289,14 +2952,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
-      <c r="A38" s="5">
+    <row r="38" ht="14.25" spans="1:24">
+      <c r="A38" s="8">
         <v>2151601020</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E38" t="s">
@@ -2305,7 +2968,7 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H38" t="s">
@@ -2314,7 +2977,7 @@
       <c r="I38" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L38" t="s">
@@ -2327,14 +2990,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
-      <c r="A39" s="5">
+    <row r="39" ht="14.25" spans="1:24">
+      <c r="A39" s="8">
         <v>2151601021</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
@@ -2343,7 +3006,7 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="s">
@@ -2352,7 +3015,7 @@
       <c r="I39" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L39" t="s">
@@ -2365,14 +3028,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
-      <c r="A40" s="5">
+    <row r="40" ht="14.25" spans="1:24">
+      <c r="A40" s="8">
         <v>2151601022</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E40" t="s">
@@ -2381,16 +3044,16 @@
       <c r="F40" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="9" t="s">
+      <c r="I40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L40" t="s">
@@ -2403,14 +3066,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
-      <c r="A41" s="5">
+    <row r="41" ht="14.25" spans="1:24">
+      <c r="A41" s="8">
         <v>2151601024</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E41" t="s">
@@ -2419,7 +3082,7 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H41" t="s">
@@ -2428,7 +3091,7 @@
       <c r="I41" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L41" t="s">
@@ -2441,14 +3104,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
-      <c r="A42" s="5">
+    <row r="42" ht="14.25" spans="1:24">
+      <c r="A42" s="8">
         <v>2151601027</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E42" t="s">
@@ -2457,54 +3120,54 @@
       <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M42" s="4" t="s">
+      <c r="G42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
-      <c r="A43" s="5">
+    <row r="43" ht="14.25" spans="1:24">
+      <c r="A43" s="8">
         <v>2151601028</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>96</v>
+      <c r="F43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K43" s="9" t="s">
+      <c r="I43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L43" t="s">
@@ -2517,14 +3180,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
-      <c r="A44" s="5">
+    <row r="44" ht="14.25" spans="1:24">
+      <c r="A44" s="8">
         <v>2151601029</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E44" t="s">
@@ -2533,16 +3196,16 @@
       <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H44" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="9" t="s">
+      <c r="I44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L44" t="s">
@@ -2555,14 +3218,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
-      <c r="A45" s="5">
+    <row r="45" ht="14.25" spans="1:24">
+      <c r="A45" s="8">
         <v>2151601030</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E45" t="s">
@@ -2571,36 +3234,36 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="4" t="s">
+      <c r="I45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X45">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
-      <c r="A46" s="5">
+    <row r="46" ht="14.25" spans="1:24">
+      <c r="A46" s="8">
         <v>2151601031</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E46" t="s">
@@ -2609,16 +3272,16 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="9" t="s">
+      <c r="I46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L46" t="s">
@@ -2631,14 +3294,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
-      <c r="A47" s="5">
+    <row r="47" ht="14.25" spans="1:24">
+      <c r="A47" s="8">
         <v>2151601032</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E47" t="s">
@@ -2647,7 +3310,7 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
@@ -2656,7 +3319,7 @@
       <c r="I47" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="K47" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L47" t="s">
@@ -2669,14 +3332,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
-      <c r="A48" s="5">
+    <row r="48" ht="14.25" spans="1:24">
+      <c r="A48" s="8">
         <v>2151601033</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E48" t="s">
@@ -2685,16 +3348,16 @@
       <c r="F48" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="9" t="s">
+      <c r="I48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L48" t="s">
@@ -2707,14 +3370,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
-      <c r="A49" s="5">
+    <row r="49" ht="14.25" spans="1:24">
+      <c r="A49" s="8">
         <v>2151601034</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E49" t="s">
@@ -2723,16 +3386,16 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="9" t="s">
+      <c r="I49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L49" t="s">
@@ -2745,23 +3408,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
-      <c r="A50" s="5">
+    <row r="50" ht="14.25" spans="1:24">
+      <c r="A50" s="8">
         <v>2151601037</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="8" t="s">
+      <c r="E50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
@@ -2770,7 +3433,7 @@
       <c r="I50" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L50" t="s">
@@ -2783,14 +3446,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
-      <c r="A51" s="5">
+    <row r="51" ht="14.25" spans="1:24">
+      <c r="A51" s="8">
         <v>2151800040</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E51" t="s">
@@ -2799,7 +3462,7 @@
       <c r="F51" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H51" t="s">
@@ -2808,7 +3471,7 @@
       <c r="I51" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K51" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L51" t="s">
@@ -2821,52 +3484,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
-      <c r="A52" s="5">
+    <row r="52" ht="14.25" spans="1:24">
+      <c r="A52" s="8">
         <v>2140501050</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" s="4" t="s">
+      <c r="E52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
-      <c r="A53" s="5">
+    <row r="53" ht="14.25" spans="1:24">
+      <c r="A53" s="8">
         <v>2151200015</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E53" t="s">
@@ -2881,30 +3544,30 @@
       <c r="H53" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M53" s="4" t="s">
+      <c r="I53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X53">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
-      <c r="A54" s="5">
+    <row r="54" ht="14.25" spans="1:24">
+      <c r="A54" s="8">
         <v>2151601038</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E54" t="s">
@@ -2925,24 +3588,24 @@
       <c r="K54" t="s">
         <v>12</v>
       </c>
-      <c r="L54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="9" t="s">
+      <c r="L54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X54">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
-      <c r="A55" s="5">
+    <row r="55" ht="14.25" spans="1:24">
+      <c r="A55" s="8">
         <v>2151601039</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
@@ -2963,24 +3626,24 @@
       <c r="K55" t="s">
         <v>12</v>
       </c>
-      <c r="L55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="9" t="s">
+      <c r="L55" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X55">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
-      <c r="A56" s="5">
+    <row r="56" ht="14.25" spans="1:24">
+      <c r="A56" s="8">
         <v>2151601042</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E56" t="s">
@@ -3001,24 +3664,24 @@
       <c r="K56" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M56" s="9" t="s">
+      <c r="L56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56" s="12" t="s">
         <v>11</v>
       </c>
       <c r="X56">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
-      <c r="A57" s="5">
+    <row r="57" ht="14.25" spans="1:24">
+      <c r="A57" s="8">
         <v>2151601043</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E57" t="s">
@@ -3033,30 +3696,30 @@
       <c r="H57" t="s">
         <v>9</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K57" t="s">
         <v>11</v>
       </c>
-      <c r="L57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M57" s="9" t="s">
+      <c r="L57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="12" t="s">
         <v>11</v>
       </c>
       <c r="X57">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
-      <c r="A58" s="5">
+    <row r="58" ht="14.25" spans="1:24">
+      <c r="A58" s="8">
         <v>2151601044</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E58" t="s">
@@ -3077,24 +3740,24 @@
       <c r="K58" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="9" t="s">
+      <c r="L58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="12" t="s">
         <v>11</v>
       </c>
       <c r="X58">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
-      <c r="A59" s="5">
+    <row r="59" ht="14.25" spans="1:24">
+      <c r="A59" s="8">
         <v>2151601045</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E59" t="s">
@@ -3109,30 +3772,30 @@
       <c r="H59" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K59" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="9" t="s">
+      <c r="L59" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X59">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
-      <c r="A60" s="5">
+    <row r="60" ht="14.25" spans="1:24">
+      <c r="A60" s="8">
         <v>2151601046</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E60" t="s">
@@ -3153,24 +3816,24 @@
       <c r="K60" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M60" s="9" t="s">
+      <c r="L60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="12" t="s">
         <v>11</v>
       </c>
       <c r="X60">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
-      <c r="A61" s="5">
+    <row r="61" ht="14.25" spans="1:24">
+      <c r="A61" s="8">
         <v>2151601047</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E61" t="s">
@@ -3191,24 +3854,24 @@
       <c r="K61" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="9" t="s">
+      <c r="L61" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X61">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
-      <c r="A62" s="5">
+    <row r="62" ht="14.25" spans="1:24">
+      <c r="A62" s="8">
         <v>2151601048</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E62" t="s">
@@ -3223,30 +3886,30 @@
       <c r="H62" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K62" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" s="9" t="s">
+      <c r="L62" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X62">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
-      <c r="A63" s="5">
+    <row r="63" ht="14.25" spans="1:24">
+      <c r="A63" s="8">
         <v>2151601049</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E63" t="s">
@@ -3267,24 +3930,24 @@
       <c r="K63" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M63" s="9" t="s">
+      <c r="L63" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X63">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
-      <c r="A64" s="5">
+    <row r="64" ht="14.25" spans="1:24">
+      <c r="A64" s="8">
         <v>2151601050</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E64" t="s">
@@ -3299,30 +3962,30 @@
       <c r="H64" t="s">
         <v>9</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K64" t="s">
         <v>12</v>
       </c>
-      <c r="L64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M64" s="9" t="s">
+      <c r="L64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64" s="12" t="s">
         <v>11</v>
       </c>
       <c r="X64">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
-      <c r="A65" s="5">
+    <row r="65" ht="14.25" spans="1:24">
+      <c r="A65" s="8">
         <v>2151601051</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E65" t="s">
@@ -3337,30 +4000,30 @@
       <c r="H65" t="s">
         <v>9</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K65" t="s">
         <v>12</v>
       </c>
-      <c r="L65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M65" s="4" t="s">
+      <c r="L65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X65">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
-      <c r="A66" s="5">
+    <row r="66" ht="14.25" spans="1:24">
+      <c r="A66" s="8">
         <v>2151601052</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E66" t="s">
@@ -3375,30 +4038,30 @@
       <c r="H66" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K66" t="s">
         <v>12</v>
       </c>
-      <c r="L66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="4" t="s">
+      <c r="L66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X66">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
-      <c r="A67" s="5">
+    <row r="67" ht="14.25" spans="1:24">
+      <c r="A67" s="8">
         <v>2151601053</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E67" t="s">
@@ -3416,27 +4079,27 @@
       <c r="I67" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M67" s="4" t="s">
+      <c r="K67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X67">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
-      <c r="A68" s="5">
+    <row r="68" ht="14.25" spans="1:24">
+      <c r="A68" s="8">
         <v>2151601054</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E68" t="s">
@@ -3457,24 +4120,24 @@
       <c r="K68" t="s">
         <v>12</v>
       </c>
-      <c r="L68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M68" s="9" t="s">
+      <c r="L68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X68">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
-      <c r="A69" s="5">
+    <row r="69" ht="14.25" spans="1:24">
+      <c r="A69" s="8">
         <v>2151601055</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E69" t="s">
@@ -3489,30 +4152,30 @@
       <c r="H69" t="s">
         <v>9</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K69" t="s">
         <v>15</v>
       </c>
-      <c r="L69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M69" s="9" t="s">
+      <c r="L69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="12" t="s">
         <v>11</v>
       </c>
       <c r="X69">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
-      <c r="A70" s="5">
+    <row r="70" ht="14.25" spans="1:24">
+      <c r="A70" s="8">
         <v>2152004006</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E70" t="s">
@@ -3533,62 +4196,62 @@
       <c r="K70" t="s">
         <v>12</v>
       </c>
-      <c r="L70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M70" s="9" t="s">
+      <c r="L70" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X70">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
-      <c r="A71" s="5">
+    <row r="71" ht="14.25" spans="1:24">
+      <c r="A71" s="8">
         <v>2131601060</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M71" s="4" t="s">
+      <c r="E71" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
-      <c r="A72" s="5">
+    <row r="72" ht="14.25" spans="1:24">
+      <c r="A72" s="8">
         <v>2150900084</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E72" t="s">
@@ -3603,30 +4266,30 @@
       <c r="H72" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M72" s="9" t="s">
+      <c r="I72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X72">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
-      <c r="A73" s="5">
+    <row r="73" ht="14.25" spans="1:24">
+      <c r="A73" s="8">
         <v>2151601056</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E73" t="s">
@@ -3644,27 +4307,27 @@
       <c r="I73" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M73" s="9" t="s">
+      <c r="K73" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X73">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
-      <c r="A74" s="5">
+    <row r="74" ht="14.25" spans="1:24">
+      <c r="A74" s="8">
         <v>2151601057</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E74" t="s">
@@ -3682,27 +4345,27 @@
       <c r="I74" t="s">
         <v>16</v>
       </c>
-      <c r="K74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M74" s="9" t="s">
+      <c r="K74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="12" t="s">
         <v>14</v>
       </c>
       <c r="X74">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
-      <c r="A75" s="5">
+    <row r="75" ht="14.25" spans="1:24">
+      <c r="A75" s="8">
         <v>2151601058</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E75" t="s">
@@ -3720,27 +4383,27 @@
       <c r="I75" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="9" t="s">
+      <c r="K75" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X75">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
-      <c r="A76" s="5">
+    <row r="76" ht="14.25" spans="1:24">
+      <c r="A76" s="8">
         <v>2151601059</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E76" t="s">
@@ -3758,27 +4421,27 @@
       <c r="I76" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M76" s="9" t="s">
+      <c r="K76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X76">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
-      <c r="A77" s="5">
+    <row r="77" ht="14.25" spans="1:24">
+      <c r="A77" s="8">
         <v>2151601061</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E77" t="s">
@@ -3796,27 +4459,27 @@
       <c r="I77" t="s">
         <v>12</v>
       </c>
-      <c r="K77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M77" s="9" t="s">
+      <c r="K77" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" s="12" t="s">
         <v>11</v>
       </c>
       <c r="X77">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
-      <c r="A78" s="5">
+    <row r="78" ht="14.25" spans="1:24">
+      <c r="A78" s="8">
         <v>2151601062</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E78" t="s">
@@ -3825,7 +4488,7 @@
       <c r="F78" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H78" t="s">
@@ -3834,27 +4497,27 @@
       <c r="I78" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M78" s="9" t="s">
+      <c r="K78" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X78">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:24">
-      <c r="A79" s="5">
+    <row r="79" ht="14.25" spans="1:24">
+      <c r="A79" s="8">
         <v>2151601063</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E79" t="s">
@@ -3863,36 +4526,36 @@
       <c r="F79" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H79" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M79" s="4" t="s">
+      <c r="I79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X79">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:24">
-      <c r="A80" s="5">
+    <row r="80" ht="14.25" spans="1:24">
+      <c r="A80" s="8">
         <v>2151601064</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E80" t="s">
@@ -3901,74 +4564,74 @@
       <c r="F80" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H80" t="s">
         <v>16</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M80" s="4" t="s">
+      <c r="I80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X80">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
-      <c r="A81" s="5">
+    <row r="81" ht="14.25" spans="1:24">
+      <c r="A81" s="8">
         <v>2151601065</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="4" t="s">
+      <c r="F81" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H81" t="s">
         <v>16</v>
       </c>
-      <c r="I81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M81" s="4" t="s">
+      <c r="I81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="7" t="s">
         <v>10</v>
       </c>
       <c r="X81">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
-      <c r="A82" s="5">
+    <row r="82" ht="14.25" spans="1:24">
+      <c r="A82" s="8">
         <v>2151601066</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E82" t="s">
@@ -3983,30 +4646,30 @@
       <c r="H82" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K82" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L82" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M82" s="9" t="s">
+      <c r="I82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82" s="12" t="s">
         <v>11</v>
       </c>
       <c r="X82">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
-      <c r="A83" s="5">
+    <row r="83" ht="14.25" spans="1:24">
+      <c r="A83" s="8">
         <v>2151601067</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E83" t="s">
@@ -4024,27 +4687,27 @@
       <c r="I83" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M83" s="9" t="s">
+      <c r="K83" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="12" t="s">
         <v>14</v>
       </c>
       <c r="X83">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
-      <c r="A84" s="5">
+    <row r="84" ht="14.25" spans="1:24">
+      <c r="A84" s="8">
         <v>2151601070</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E84" t="s">
@@ -4062,27 +4725,27 @@
       <c r="I84" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L84" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M84" s="9" t="s">
+      <c r="K84" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" s="12" t="s">
         <v>14</v>
       </c>
       <c r="X84">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
-      <c r="A85" s="5">
+    <row r="85" ht="14.25" spans="1:24">
+      <c r="A85" s="8">
         <v>2151601071</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E85" t="s">
@@ -4100,13 +4763,13 @@
       <c r="I85" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L85" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M85" s="9" t="s">
+      <c r="K85" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="12" t="s">
         <v>12</v>
       </c>
       <c r="X85">
@@ -4123,8 +4786,8 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="A2:X7"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>